--- a/data/airline-on-time-arrival-pct/airline-on-time-pct-2023.xlsx
+++ b/data/airline-on-time-arrival-pct/airline-on-time-pct-2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\External Affairs\Press\OAI spreadsheets\Annual Airline On-Time Rankings 2003-2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/akib0112/Work-Data/course-work/cis-662/project/predict-flight-landing/data/airline-on-time-arrival-pct/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E0D590F2-35AB-4424-9974-A4351C50D73E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29554A3A-0BB9-3A43-B722-4C3A22BAF8A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="22" activeTab="25" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" firstSheet="2" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2003" sheetId="15" r:id="rId1"/>
@@ -51,7 +51,6 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -534,7 +533,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -572,34 +571,24 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -610,53 +599,53 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1007,21 +996,21 @@
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" customWidth="1"/>
-    <col min="2" max="2" width="29.453125" customWidth="1"/>
-    <col min="3" max="3" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" customWidth="1"/>
+    <col min="2" max="2" width="29.5" customWidth="1"/>
+    <col min="3" max="3" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="13" x14ac:dyDescent="0.3">
-      <c r="A1" s="59" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-    </row>
-    <row r="2" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+    </row>
+    <row r="2" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -1030,8 +1019,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="13" x14ac:dyDescent="0.3">
-      <c r="A3" s="41">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" s="36">
         <v>1</v>
       </c>
       <c r="B3" t="s">
@@ -1042,8 +1031,8 @@
       </c>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" ht="13" x14ac:dyDescent="0.3">
-      <c r="A4" s="41">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="36">
         <v>2</v>
       </c>
       <c r="B4" t="s">
@@ -1054,8 +1043,8 @@
       </c>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" ht="13" x14ac:dyDescent="0.3">
-      <c r="A5" s="41">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="36">
         <v>3</v>
       </c>
       <c r="B5" t="s">
@@ -1066,8 +1055,8 @@
       </c>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" ht="13" x14ac:dyDescent="0.3">
-      <c r="A6" s="41">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" s="36">
         <v>4</v>
       </c>
       <c r="B6" t="s">
@@ -1078,8 +1067,8 @@
       </c>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" ht="13" x14ac:dyDescent="0.3">
-      <c r="A7" s="41">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" s="36">
         <v>5</v>
       </c>
       <c r="B7" t="s">
@@ -1090,8 +1079,8 @@
       </c>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" ht="13" x14ac:dyDescent="0.3">
-      <c r="A8" s="41">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" s="36">
         <v>6</v>
       </c>
       <c r="B8" t="s">
@@ -1102,8 +1091,8 @@
       </c>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" ht="13" x14ac:dyDescent="0.3">
-      <c r="A9" s="41">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="36">
         <v>7</v>
       </c>
       <c r="B9" t="s">
@@ -1114,8 +1103,8 @@
       </c>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" ht="13" x14ac:dyDescent="0.3">
-      <c r="A10" s="41">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" s="36">
         <v>8</v>
       </c>
       <c r="B10" t="s">
@@ -1126,11 +1115,11 @@
       </c>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8" ht="13" x14ac:dyDescent="0.3">
-      <c r="A11" s="41">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" s="36">
         <v>9</v>
       </c>
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="31" t="s">
         <v>42</v>
       </c>
       <c r="C11" s="1">
@@ -1138,8 +1127,8 @@
       </c>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" ht="13" x14ac:dyDescent="0.3">
-      <c r="A12" s="41">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12" s="36">
         <v>10</v>
       </c>
       <c r="B12" t="s">
@@ -1150,8 +1139,8 @@
       </c>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8" ht="13" x14ac:dyDescent="0.3">
-      <c r="A13" s="41">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13" s="36">
         <v>11</v>
       </c>
       <c r="B13" t="s">
@@ -1162,11 +1151,11 @@
       </c>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:8" ht="13" x14ac:dyDescent="0.3">
-      <c r="A14" s="41">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A14" s="36">
         <v>12</v>
       </c>
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="31" t="s">
         <v>43</v>
       </c>
       <c r="C14" s="1">
@@ -1174,8 +1163,8 @@
       </c>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:8" ht="13" x14ac:dyDescent="0.3">
-      <c r="A15" s="41">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A15" s="36">
         <v>13</v>
       </c>
       <c r="B15" t="s">
@@ -1186,8 +1175,8 @@
       </c>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:8" ht="13" x14ac:dyDescent="0.3">
-      <c r="A16" s="41">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A16" s="36">
         <v>14</v>
       </c>
       <c r="B16" t="s">
@@ -1198,8 +1187,8 @@
       </c>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8" ht="13" x14ac:dyDescent="0.3">
-      <c r="A17" s="41">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A17" s="36">
         <v>15</v>
       </c>
       <c r="B17" t="s">
@@ -1210,11 +1199,11 @@
       </c>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:8" ht="13" x14ac:dyDescent="0.3">
-      <c r="A18" s="41">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A18" s="36">
         <v>16</v>
       </c>
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="31" t="s">
         <v>44</v>
       </c>
       <c r="C18" s="1">
@@ -1222,8 +1211,8 @@
       </c>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="1:8" ht="13" x14ac:dyDescent="0.3">
-      <c r="A19" s="41">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A19" s="36">
         <v>17</v>
       </c>
       <c r="B19" t="s">
@@ -1234,11 +1223,11 @@
       </c>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="1:8" ht="13" x14ac:dyDescent="0.3">
-      <c r="A20" s="41">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A20" s="36">
         <v>18</v>
       </c>
-      <c r="B20" s="34" t="s">
+      <c r="B20" s="31" t="s">
         <v>45</v>
       </c>
       <c r="C20" s="1">
@@ -1246,27 +1235,27 @@
       </c>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="1:8" ht="13" x14ac:dyDescent="0.3">
-      <c r="A21" s="36"/>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A21" s="33"/>
       <c r="B21" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="35">
+      <c r="C21" s="32">
         <v>81.96</v>
       </c>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="61" t="s">
+    <row r="22" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="B22" s="61"/>
-      <c r="C22" s="61"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="60"/>
-      <c r="B23" s="60"/>
-      <c r="C23" s="60"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="50"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A23" s="49"/>
+      <c r="B23" s="49"/>
+      <c r="C23" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1285,27 +1274,27 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="A20" sqref="A20:C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="29.453125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="22.54296875" style="8" customWidth="1"/>
-    <col min="4" max="9" width="9.1796875" style="8"/>
-    <col min="10" max="10" width="9.26953125" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.1796875" style="8"/>
+    <col min="1" max="1" width="8.6640625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="29.5" style="8" customWidth="1"/>
+    <col min="3" max="3" width="22.5" style="8" customWidth="1"/>
+    <col min="4" max="9" width="9.1640625" style="8"/>
+    <col min="10" max="10" width="9.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.1640625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="13" x14ac:dyDescent="0.3">
-      <c r="A1" s="62" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A1" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-    </row>
-    <row r="2" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+    </row>
+    <row r="2" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="14"/>
       <c r="B2" s="15" t="s">
         <v>0</v>
@@ -1314,8 +1303,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="13" x14ac:dyDescent="0.3">
-      <c r="A3" s="46">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A3" s="38">
         <v>1</v>
       </c>
       <c r="B3" s="10" t="s">
@@ -1329,8 +1318,8 @@
       <c r="I3" s="12"/>
       <c r="J3" s="13"/>
     </row>
-    <row r="4" spans="1:10" ht="13" x14ac:dyDescent="0.3">
-      <c r="A4" s="46">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A4" s="38">
         <v>2</v>
       </c>
       <c r="B4" s="10" t="s">
@@ -1343,8 +1332,8 @@
       <c r="I4" s="12"/>
       <c r="J4" s="13"/>
     </row>
-    <row r="5" spans="1:10" ht="13" x14ac:dyDescent="0.3">
-      <c r="A5" s="46">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A5" s="38">
         <v>3</v>
       </c>
       <c r="B5" s="10" t="s">
@@ -1354,8 +1343,8 @@
         <v>87.09</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="13" x14ac:dyDescent="0.3">
-      <c r="A6" s="46">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A6" s="38">
         <v>4</v>
       </c>
       <c r="B6" s="10" t="s">
@@ -1365,8 +1354,8 @@
         <v>86.54</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="13" x14ac:dyDescent="0.3">
-      <c r="A7" s="46">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A7" s="38">
         <v>5</v>
       </c>
       <c r="B7" s="10" t="s">
@@ -1376,8 +1365,8 @@
         <v>85.88</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="13" x14ac:dyDescent="0.3">
-      <c r="A8" s="46">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A8" s="38">
         <v>6</v>
       </c>
       <c r="B8" s="10" t="s">
@@ -1387,8 +1376,8 @@
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="13" x14ac:dyDescent="0.3">
-      <c r="A9" s="46">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A9" s="38">
         <v>7</v>
       </c>
       <c r="B9" s="8" t="s">
@@ -1398,8 +1387,8 @@
         <v>83.45</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="13" x14ac:dyDescent="0.3">
-      <c r="A10" s="46">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A10" s="38">
         <v>8</v>
       </c>
       <c r="B10" s="10" t="s">
@@ -1409,8 +1398,8 @@
         <v>83.13</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="13" x14ac:dyDescent="0.3">
-      <c r="A11" s="46">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A11" s="38">
         <v>9</v>
       </c>
       <c r="B11" s="10" t="s">
@@ -1420,8 +1409,8 @@
         <v>81.605655831255021</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="13" x14ac:dyDescent="0.3">
-      <c r="A12" s="46">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A12" s="38">
         <v>10</v>
       </c>
       <c r="B12" s="10" t="s">
@@ -1431,8 +1420,8 @@
         <v>81.605520626266681</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="13" x14ac:dyDescent="0.3">
-      <c r="A13" s="46">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A13" s="38">
         <v>11</v>
       </c>
       <c r="B13" s="10" t="s">
@@ -1442,8 +1431,8 @@
         <v>79.13</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="13" x14ac:dyDescent="0.3">
-      <c r="A14" s="46">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A14" s="38">
         <v>12</v>
       </c>
       <c r="B14" s="10" t="s">
@@ -1453,8 +1442,8 @@
         <v>77.930000000000007</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="13" x14ac:dyDescent="0.3">
-      <c r="A15" s="46">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A15" s="38">
         <v>13</v>
       </c>
       <c r="B15" s="10" t="s">
@@ -1464,8 +1453,8 @@
         <v>77.349999999999994</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="13" x14ac:dyDescent="0.3">
-      <c r="A16" s="46">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A16" s="38">
         <v>14</v>
       </c>
       <c r="B16" s="10" t="s">
@@ -1475,8 +1464,8 @@
         <v>76.94</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="A17" s="46">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" s="38">
         <v>15</v>
       </c>
       <c r="B17" s="10" t="s">
@@ -1486,8 +1475,8 @@
         <v>76.89</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="A18" s="47"/>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" s="39"/>
       <c r="B18" s="16" t="s">
         <v>4</v>
       </c>
@@ -1495,19 +1484,19 @@
         <v>81.849999999999994</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="64" t="s">
+    <row r="19" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="64"/>
-      <c r="C19" s="64"/>
-    </row>
-    <row r="20" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="63" t="s">
+      <c r="B19" s="53"/>
+      <c r="C19" s="53"/>
+    </row>
+    <row r="20" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="63"/>
-      <c r="C20" s="63"/>
+      <c r="B20" s="52"/>
+      <c r="C20" s="52"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B12:C13">
@@ -1532,24 +1521,24 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="29.453125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="22.54296875" style="8" customWidth="1"/>
-    <col min="4" max="9" width="9.1796875" style="8"/>
-    <col min="10" max="10" width="9.26953125" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.1796875" style="8"/>
+    <col min="1" max="1" width="8.6640625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="29.5" style="8" customWidth="1"/>
+    <col min="3" max="3" width="22.5" style="8" customWidth="1"/>
+    <col min="4" max="9" width="9.1640625" style="8"/>
+    <col min="10" max="10" width="9.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.1640625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="13" x14ac:dyDescent="0.3">
-      <c r="A1" s="62" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A1" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-    </row>
-    <row r="2" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+    </row>
+    <row r="2" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="14"/>
       <c r="B2" s="15" t="s">
         <v>0</v>
@@ -1558,8 +1547,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="13" x14ac:dyDescent="0.3">
-      <c r="A3" s="46">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A3" s="38">
         <v>1</v>
       </c>
       <c r="B3" s="10" t="s">
@@ -1573,8 +1562,8 @@
       <c r="I3" s="12"/>
       <c r="J3" s="13"/>
     </row>
-    <row r="4" spans="1:12" ht="13" x14ac:dyDescent="0.3">
-      <c r="A4" s="46">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A4" s="38">
         <v>2</v>
       </c>
       <c r="B4" s="10" t="s">
@@ -1587,8 +1576,8 @@
       <c r="I4" s="12"/>
       <c r="J4" s="13"/>
     </row>
-    <row r="5" spans="1:12" ht="13" x14ac:dyDescent="0.3">
-      <c r="A5" s="46">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A5" s="38">
         <v>3</v>
       </c>
       <c r="B5" s="10" t="s">
@@ -1598,8 +1587,8 @@
         <v>84.51</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="13" x14ac:dyDescent="0.3">
-      <c r="A6" s="46">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A6" s="38">
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -1609,8 +1598,8 @@
         <v>82.07</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="13" x14ac:dyDescent="0.3">
-      <c r="A7" s="46">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A7" s="38">
         <v>5</v>
       </c>
       <c r="B7" s="10" t="s">
@@ -1620,8 +1609,8 @@
         <v>81.47</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="13" x14ac:dyDescent="0.3">
-      <c r="A8" s="46">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A8" s="38">
         <v>6</v>
       </c>
       <c r="B8" s="10" t="s">
@@ -1631,8 +1620,8 @@
         <v>80.27</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="13" x14ac:dyDescent="0.3">
-      <c r="A9" s="46">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A9" s="38">
         <v>7</v>
       </c>
       <c r="B9" s="10" t="s">
@@ -1642,8 +1631,8 @@
         <v>79.66</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="13" x14ac:dyDescent="0.3">
-      <c r="A10" s="46">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A10" s="38">
         <v>8</v>
       </c>
       <c r="B10" s="10" t="s">
@@ -1653,8 +1642,8 @@
         <v>79.45</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="13" x14ac:dyDescent="0.3">
-      <c r="A11" s="46">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A11" s="38">
         <v>9</v>
       </c>
       <c r="B11" s="10" t="s">
@@ -1668,8 +1657,8 @@
       <c r="J11" s="20"/>
       <c r="L11" s="21"/>
     </row>
-    <row r="12" spans="1:12" ht="13" x14ac:dyDescent="0.3">
-      <c r="A12" s="46">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A12" s="38">
         <v>10</v>
       </c>
       <c r="B12" s="10" t="s">
@@ -1683,8 +1672,8 @@
       <c r="J12" s="20"/>
       <c r="L12" s="21"/>
     </row>
-    <row r="13" spans="1:12" ht="13" x14ac:dyDescent="0.3">
-      <c r="A13" s="46">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A13" s="38">
         <v>11</v>
       </c>
       <c r="B13" s="10" t="s">
@@ -1694,8 +1683,8 @@
         <v>77.39</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="13" x14ac:dyDescent="0.3">
-      <c r="A14" s="46">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A14" s="38">
         <v>12</v>
       </c>
       <c r="B14" s="10" t="s">
@@ -1705,8 +1694,8 @@
         <v>76.7</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="13" x14ac:dyDescent="0.3">
-      <c r="A15" s="46">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A15" s="38">
         <v>13</v>
       </c>
       <c r="B15" s="10" t="s">
@@ -1716,8 +1705,8 @@
         <v>74.44</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="13" x14ac:dyDescent="0.3">
-      <c r="A16" s="46">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A16" s="38">
         <v>14</v>
       </c>
       <c r="B16" s="10" t="s">
@@ -1727,8 +1716,8 @@
         <v>73.08</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="A17" s="46">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" s="38">
         <v>15</v>
       </c>
       <c r="B17" s="10" t="s">
@@ -1738,8 +1727,8 @@
         <v>72.75</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="A18" s="46">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" s="38">
         <v>16</v>
       </c>
       <c r="B18" s="10" t="s">
@@ -1749,7 +1738,7 @@
         <v>72.099999999999994</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" s="18"/>
       <c r="B19" s="16" t="s">
         <v>4</v>
@@ -1758,12 +1747,12 @@
         <v>78.34</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="64" t="s">
+    <row r="20" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="64"/>
-      <c r="C20" s="64"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1784,24 +1773,24 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="29.453125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="22.54296875" style="8" customWidth="1"/>
-    <col min="4" max="4" width="9.1796875" style="8"/>
-    <col min="5" max="5" width="9.26953125" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.1796875" style="8"/>
+    <col min="1" max="1" width="8.6640625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="29.5" style="8" customWidth="1"/>
+    <col min="3" max="3" width="22.5" style="8" customWidth="1"/>
+    <col min="4" max="4" width="9.1640625" style="8"/>
+    <col min="5" max="5" width="9.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.1640625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13" x14ac:dyDescent="0.3">
-      <c r="A1" s="62" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="51" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-    </row>
-    <row r="2" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+    </row>
+    <row r="2" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="14"/>
       <c r="B2" s="15" t="s">
         <v>0</v>
@@ -1810,8 +1799,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="13" x14ac:dyDescent="0.3">
-      <c r="A3" s="46">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="38">
         <v>1</v>
       </c>
       <c r="B3" s="10" t="s">
@@ -1823,8 +1812,8 @@
       <c r="D3" s="12"/>
       <c r="E3" s="13"/>
     </row>
-    <row r="4" spans="1:7" ht="13" x14ac:dyDescent="0.3">
-      <c r="A4" s="46">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="38">
         <v>2</v>
       </c>
       <c r="B4" s="10" t="s">
@@ -1836,8 +1825,8 @@
       <c r="D4" s="12"/>
       <c r="E4" s="13"/>
     </row>
-    <row r="5" spans="1:7" ht="13" x14ac:dyDescent="0.3">
-      <c r="A5" s="46">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="38">
         <v>3</v>
       </c>
       <c r="B5" s="10" t="s">
@@ -1847,8 +1836,8 @@
         <v>83.71</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="13" x14ac:dyDescent="0.3">
-      <c r="A6" s="46">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="38">
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -1858,8 +1847,8 @@
         <v>81.48</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="13" x14ac:dyDescent="0.3">
-      <c r="A7" s="46">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="38">
         <v>5</v>
       </c>
       <c r="B7" s="10" t="s">
@@ -1869,8 +1858,8 @@
         <v>80.89</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="13" x14ac:dyDescent="0.3">
-      <c r="A8" s="46">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="38">
         <v>6</v>
       </c>
       <c r="B8" s="10" t="s">
@@ -1880,8 +1869,8 @@
         <v>80.69</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="13" x14ac:dyDescent="0.3">
-      <c r="A9" s="46">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" s="38">
         <v>7</v>
       </c>
       <c r="B9" s="10" t="s">
@@ -1891,8 +1880,8 @@
         <v>76.349999999999994</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="13" x14ac:dyDescent="0.3">
-      <c r="A10" s="46">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" s="38">
         <v>8</v>
       </c>
       <c r="B10" s="10" t="s">
@@ -1902,8 +1891,8 @@
         <v>75.989999999999995</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="13" x14ac:dyDescent="0.3">
-      <c r="A11" s="46">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" s="38">
         <v>9</v>
       </c>
       <c r="B11" s="10" t="s">
@@ -1916,8 +1905,8 @@
       <c r="E11" s="20"/>
       <c r="G11" s="21"/>
     </row>
-    <row r="12" spans="1:7" ht="13" x14ac:dyDescent="0.3">
-      <c r="A12" s="46">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" s="38">
         <v>10</v>
       </c>
       <c r="B12" s="10" t="s">
@@ -1930,8 +1919,8 @@
       <c r="E12" s="20"/>
       <c r="G12" s="21"/>
     </row>
-    <row r="13" spans="1:7" ht="13" x14ac:dyDescent="0.3">
-      <c r="A13" s="46">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" s="38">
         <v>11</v>
       </c>
       <c r="B13" s="10" t="s">
@@ -1941,8 +1930,8 @@
         <v>74.069999999999993</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="13" x14ac:dyDescent="0.3">
-      <c r="A14" s="46">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14" s="38">
         <v>12</v>
       </c>
       <c r="B14" s="10" t="s">
@@ -1952,8 +1941,8 @@
         <v>73.010000000000005</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="13" x14ac:dyDescent="0.3">
-      <c r="A15" s="46">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15" s="38">
         <v>13</v>
       </c>
       <c r="B15" s="10" t="s">
@@ -1963,8 +1952,8 @@
         <v>70.75</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="13" x14ac:dyDescent="0.3">
-      <c r="A16" s="46">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" s="38">
         <v>14</v>
       </c>
       <c r="B16" s="10" t="s">
@@ -1974,7 +1963,7 @@
         <v>68.790000000000006</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="18"/>
       <c r="B17" s="16" t="s">
         <v>4</v>
@@ -1983,12 +1972,12 @@
         <v>76.25</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="64" t="s">
+    <row r="18" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="64"/>
-      <c r="C18" s="64"/>
+      <c r="B18" s="53"/>
+      <c r="C18" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2009,22 +1998,22 @@
       <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="22" customWidth="1"/>
-    <col min="2" max="2" width="29.453125" style="22" customWidth="1"/>
-    <col min="3" max="3" width="22.54296875" style="22" customWidth="1"/>
-    <col min="4" max="16384" width="9.1796875" style="22"/>
+    <col min="1" max="1" width="8.6640625" style="22" customWidth="1"/>
+    <col min="2" max="2" width="29.5" style="22" customWidth="1"/>
+    <col min="3" max="3" width="22.5" style="22" customWidth="1"/>
+    <col min="4" max="16384" width="9.1640625" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="65" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-    </row>
-    <row r="2" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+    </row>
+    <row r="2" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="23"/>
       <c r="B2" s="24" t="s">
         <v>0</v>
@@ -2033,8 +2022,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="48">
+    <row r="3" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="40">
         <v>1</v>
       </c>
       <c r="B3" s="25" t="s">
@@ -2044,8 +2033,8 @@
         <v>88.4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="48">
+    <row r="4" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="40">
         <v>2</v>
       </c>
       <c r="B4" s="25" t="s">
@@ -2055,8 +2044,8 @@
         <v>86.42</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="48">
+    <row r="5" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="40">
         <v>3</v>
       </c>
       <c r="B5" s="25" t="s">
@@ -2066,8 +2055,8 @@
         <v>85.89</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="48">
+    <row r="6" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="40">
         <v>4</v>
       </c>
       <c r="B6" s="27" t="s">
@@ -2077,8 +2066,8 @@
         <v>80.061728194796359</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="48"/>
+    <row r="7" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="40"/>
       <c r="B7" s="27" t="s">
         <v>32</v>
       </c>
@@ -2086,17 +2075,17 @@
         <v>80.257416141402558</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="48"/>
+    <row r="8" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="40"/>
       <c r="B8" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="28">
+      <c r="C8" s="26">
         <v>79.346803210628295</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="48">
+    <row r="9" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="40">
         <v>5</v>
       </c>
       <c r="B9" s="25" t="s">
@@ -2106,8 +2095,8 @@
         <v>79.92</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="48">
+    <row r="10" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="40">
         <v>6</v>
       </c>
       <c r="B10" s="25" t="s">
@@ -2117,105 +2106,105 @@
         <v>79.72</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="48">
+    <row r="11" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="40">
         <v>7</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="25" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="26">
         <v>79.709999999999994</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="48">
+    <row r="12" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="40">
         <v>8</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="25" t="s">
         <v>21</v>
       </c>
       <c r="C12" s="26">
         <v>78.150000000000006</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="48">
+    <row r="13" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="40">
         <v>9</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="25" t="s">
         <v>34</v>
       </c>
       <c r="C13" s="26">
         <v>77.900000000000006</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="48">
+    <row r="14" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="40">
         <v>10</v>
       </c>
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="25" t="s">
         <v>35</v>
       </c>
       <c r="C14" s="26">
         <v>75.97</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="48">
+    <row r="15" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="40">
         <v>11</v>
       </c>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="25" t="s">
         <v>36</v>
       </c>
       <c r="C15" s="26">
         <v>74.069999999999993</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="48">
+    <row r="16" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="40">
         <v>12</v>
       </c>
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="25" t="s">
         <v>37</v>
       </c>
       <c r="C16" s="26">
         <v>73.23</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="48">
+    <row r="17" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="40">
         <v>13</v>
       </c>
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="25" t="s">
         <v>38</v>
       </c>
       <c r="C17" s="26">
         <v>68.98</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="30"/>
-      <c r="B18" s="31" t="s">
+    <row r="18" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="28"/>
+      <c r="B18" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="32">
+      <c r="C18" s="30">
         <v>79.92</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="67" t="s">
+    <row r="19" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="67"/>
-      <c r="C19" s="67"/>
-    </row>
-    <row r="20" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="68" t="s">
+      <c r="B19" s="56"/>
+      <c r="C19" s="56"/>
+    </row>
+    <row r="20" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="68"/>
-      <c r="C20" s="68"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2236,22 +2225,22 @@
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="28.26953125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="22.54296875" style="8" customWidth="1"/>
-    <col min="4" max="16384" width="9.1796875" style="8"/>
+    <col min="1" max="1" width="8.6640625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="28.33203125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="22.5" style="8" customWidth="1"/>
+    <col min="4" max="16384" width="9.1640625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="62" t="s">
+    <row r="1" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="51" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-    </row>
-    <row r="2" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+    </row>
+    <row r="2" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="14"/>
       <c r="B2" s="15" t="s">
         <v>0</v>
@@ -2260,7 +2249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="9">
         <v>1</v>
       </c>
@@ -2273,7 +2262,7 @@
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
     </row>
-    <row r="4" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="9">
         <v>2</v>
       </c>
@@ -2286,7 +2275,7 @@
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
     </row>
-    <row r="5" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="9">
         <v>3</v>
       </c>
@@ -2297,7 +2286,7 @@
         <v>86.48</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="9">
         <v>4</v>
       </c>
@@ -2308,7 +2297,7 @@
         <v>82.28</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="9">
         <v>5</v>
       </c>
@@ -2319,7 +2308,7 @@
         <v>81.709999999999994</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="9">
         <v>6</v>
       </c>
@@ -2330,7 +2319,7 @@
         <v>80.8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="9">
         <v>7</v>
       </c>
@@ -2341,18 +2330,18 @@
         <v>79.81</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="9">
         <v>8</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="8" t="s">
         <v>40</v>
       </c>
       <c r="C10" s="10">
         <v>79.38</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="9">
         <v>9</v>
       </c>
@@ -2363,7 +2352,7 @@
         <v>76.209999999999994</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="9">
         <v>10</v>
       </c>
@@ -2374,7 +2363,7 @@
         <v>76.02</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="9">
         <v>11</v>
       </c>
@@ -2385,7 +2374,7 @@
         <v>75.010000000000005</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="9">
         <v>12</v>
       </c>
@@ -2396,7 +2385,7 @@
         <v>74.319999999999993</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="18"/>
       <c r="B15" s="16" t="s">
         <v>4</v>
@@ -2405,12 +2394,12 @@
         <v>81.42</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="64" t="s">
+    <row r="16" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="64"/>
-      <c r="C16" s="64"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2427,26 +2416,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="29.453125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="22.54296875" style="8" customWidth="1"/>
-    <col min="4" max="16384" width="9.1796875" style="8"/>
+    <col min="1" max="1" width="8.6640625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="29.5" style="8" customWidth="1"/>
+    <col min="3" max="3" width="22.5" style="8" customWidth="1"/>
+    <col min="4" max="16384" width="9.1640625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="62" t="s">
+    <row r="1" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-    </row>
-    <row r="2" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+    </row>
+    <row r="2" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="14"/>
       <c r="B2" s="15" t="s">
         <v>0</v>
@@ -2455,7 +2444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="9">
         <v>1</v>
       </c>
@@ -2468,7 +2457,7 @@
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
     </row>
-    <row r="4" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="9">
         <v>2</v>
       </c>
@@ -2481,7 +2470,7 @@
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
     </row>
-    <row r="5" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="9">
         <v>3</v>
       </c>
@@ -2492,7 +2481,7 @@
         <v>82.55</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="9">
         <v>4</v>
       </c>
@@ -2503,18 +2492,18 @@
         <v>82.06</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="9">
         <v>5</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="8" t="s">
         <v>40</v>
       </c>
       <c r="C7" s="10">
         <v>80.349999999999994</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="9">
         <v>6</v>
       </c>
@@ -2525,7 +2514,7 @@
         <v>80.010000000000005</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="9">
         <v>7</v>
       </c>
@@ -2536,7 +2525,7 @@
         <v>78.66</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="9">
         <v>8</v>
       </c>
@@ -2547,7 +2536,7 @@
         <v>78.34</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="9">
         <v>9</v>
       </c>
@@ -2558,7 +2547,7 @@
         <v>77.3</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="9">
         <v>10</v>
       </c>
@@ -2569,7 +2558,7 @@
         <v>77.09</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="9">
         <v>11</v>
       </c>
@@ -2580,7 +2569,7 @@
         <v>71.349999999999994</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="9">
         <v>12</v>
       </c>
@@ -2591,7 +2580,7 @@
         <v>70.010000000000005</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="18"/>
       <c r="B15" s="16" t="s">
         <v>4</v>
@@ -2600,12 +2589,12 @@
         <v>80.180000000000007</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="64" t="s">
+    <row r="16" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="64"/>
-      <c r="C16" s="64"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2626,21 +2615,21 @@
       <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" customWidth="1"/>
-    <col min="2" max="2" width="29.453125" customWidth="1"/>
-    <col min="3" max="3" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" customWidth="1"/>
+    <col min="2" max="2" width="29.5" customWidth="1"/>
+    <col min="3" max="3" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="59" t="s">
+    <row r="1" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-    </row>
-    <row r="2" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+    </row>
+    <row r="2" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -2649,11 +2638,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="13" x14ac:dyDescent="0.3">
-      <c r="A3" s="41">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A3" s="36">
         <v>1</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="35" t="s">
         <v>59</v>
       </c>
       <c r="C3" s="1">
@@ -2662,11 +2651,11 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:13" ht="13" x14ac:dyDescent="0.3">
-      <c r="A4" s="41">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A4" s="36">
         <v>2</v>
       </c>
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="35" t="s">
         <v>60</v>
       </c>
       <c r="C4" s="1">
@@ -2675,37 +2664,37 @@
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:13" ht="13" x14ac:dyDescent="0.3">
-      <c r="A5" s="41">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A5" s="36">
         <v>3</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="35" t="s">
         <v>67</v>
       </c>
       <c r="C5" s="1">
         <v>82.45095247653235</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="13" x14ac:dyDescent="0.3">
-      <c r="A6" s="41"/>
-      <c r="B6" s="40" t="s">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A6" s="36"/>
+      <c r="B6" s="35" t="s">
         <v>54</v>
       </c>
       <c r="C6" s="1">
         <v>82.66</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="13" x14ac:dyDescent="0.3">
-      <c r="A7" s="41"/>
-      <c r="B7" s="40" t="s">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A7" s="36"/>
+      <c r="B7" s="35" t="s">
         <v>55</v>
       </c>
       <c r="C7" s="1">
         <v>77.61</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="13" x14ac:dyDescent="0.3">
-      <c r="A8" s="41">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A8" s="36">
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -2715,8 +2704,8 @@
         <v>81.08</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="13" x14ac:dyDescent="0.3">
-      <c r="A9" s="41">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A9" s="36">
         <v>5</v>
       </c>
       <c r="B9" t="s">
@@ -2726,41 +2715,41 @@
         <v>79.2</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="13" x14ac:dyDescent="0.3">
-      <c r="A10" s="41">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A10" s="36">
         <v>6</v>
       </c>
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="35" t="s">
         <v>63</v>
       </c>
       <c r="C10" s="1">
         <v>77.92</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="13" x14ac:dyDescent="0.3">
-      <c r="A11" s="41">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A11" s="36">
         <v>7</v>
       </c>
-      <c r="B11" s="43" t="s">
+      <c r="B11" s="31" t="s">
         <v>62</v>
       </c>
       <c r="C11" s="1">
         <v>77.38</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="13" x14ac:dyDescent="0.3">
-      <c r="A12" s="41">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A12" s="36">
         <v>8</v>
       </c>
-      <c r="B12" s="42" t="s">
+      <c r="B12" s="35" t="s">
         <v>57</v>
       </c>
       <c r="C12" s="1">
         <v>76.87</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="13" x14ac:dyDescent="0.3">
-      <c r="A13" s="41">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A13" s="36">
         <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -2769,7 +2758,7 @@
       <c r="C13" s="1">
         <v>70.959999999999994</v>
       </c>
-      <c r="G13" s="43"/>
+      <c r="G13" s="31"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -2777,31 +2766,31 @@
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
     </row>
-    <row r="14" spans="1:13" ht="13" x14ac:dyDescent="0.3">
-      <c r="A14" s="41">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A14" s="36">
         <v>10</v>
       </c>
-      <c r="B14" s="39" t="s">
+      <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="39">
+      <c r="C14" s="1">
         <v>69.39</v>
       </c>
-      <c r="G14" s="43"/>
+      <c r="G14" s="31"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
     </row>
-    <row r="15" spans="1:13" ht="13" x14ac:dyDescent="0.3">
-      <c r="A15" s="36"/>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A15" s="33"/>
       <c r="B15" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="35">
+      <c r="C15" s="32">
         <v>79.17</v>
       </c>
-      <c r="G15" s="43"/>
+      <c r="G15" s="31"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
@@ -2809,29 +2798,29 @@
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
     </row>
-    <row r="16" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="61" t="s">
+    <row r="16" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="61"/>
-      <c r="C16" s="61"/>
-    </row>
-    <row r="17" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="69" t="s">
+      <c r="B16" s="50"/>
+      <c r="C16" s="50"/>
+    </row>
+    <row r="17" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="B17" s="69"/>
-      <c r="C17" s="69"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="44"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="58"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="37"/>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="1:11" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="68" t="s">
+    <row r="18" spans="1:11" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="57" t="s">
         <v>68</v>
       </c>
-      <c r="B18" s="68"/>
-      <c r="C18" s="68"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="57"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:C13">
@@ -2854,24 +2843,24 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="A24" sqref="A24:C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" customWidth="1"/>
-    <col min="2" max="2" width="29.453125" customWidth="1"/>
-    <col min="3" max="3" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" customWidth="1"/>
+    <col min="2" max="2" width="29.5" customWidth="1"/>
+    <col min="3" max="3" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="13" x14ac:dyDescent="0.3">
-      <c r="A1" s="59" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="48" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-    </row>
-    <row r="2" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+    </row>
+    <row r="2" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -2880,8 +2869,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="13" x14ac:dyDescent="0.3">
-      <c r="A3" s="41">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="36">
         <v>1</v>
       </c>
       <c r="B3" t="s">
@@ -2892,8 +2881,8 @@
       </c>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:4" ht="13" x14ac:dyDescent="0.3">
-      <c r="A4" s="41">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="36">
         <v>2</v>
       </c>
       <c r="B4" t="s">
@@ -2904,8 +2893,8 @@
       </c>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:4" ht="13" x14ac:dyDescent="0.3">
-      <c r="A5" s="41">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="36">
         <v>3</v>
       </c>
       <c r="B5" t="s">
@@ -2915,26 +2904,26 @@
         <v>82.154340225713753</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="13" x14ac:dyDescent="0.3">
-      <c r="A6" s="41"/>
-      <c r="B6" s="40" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="36"/>
+      <c r="B6" s="35" t="s">
         <v>54</v>
       </c>
       <c r="C6" s="1">
         <v>82.481353835637066</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="13" x14ac:dyDescent="0.3">
-      <c r="A7" s="41"/>
-      <c r="B7" s="40" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="36"/>
+      <c r="B7" s="35" t="s">
         <v>55</v>
       </c>
       <c r="C7" s="1">
         <v>77.606112054329373</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="13" x14ac:dyDescent="0.3">
-      <c r="A8" s="41">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="36">
         <v>4</v>
       </c>
       <c r="B8" t="s">
@@ -2944,8 +2933,8 @@
         <v>81.08</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="13" x14ac:dyDescent="0.3">
-      <c r="A9" s="41">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="36">
         <v>5</v>
       </c>
       <c r="B9" t="s">
@@ -2955,8 +2944,8 @@
         <v>79.8</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="13" x14ac:dyDescent="0.3">
-      <c r="A10" s="41">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" s="36">
         <v>6</v>
       </c>
       <c r="B10" t="s">
@@ -2966,8 +2955,8 @@
         <v>79.680000000000007</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="13" x14ac:dyDescent="0.3">
-      <c r="A11" s="41">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" s="36">
         <v>7</v>
       </c>
       <c r="B11" t="s">
@@ -2977,8 +2966,8 @@
         <v>79.3</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="13" x14ac:dyDescent="0.3">
-      <c r="A12" s="41">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" s="36">
         <v>8</v>
       </c>
       <c r="B12" t="s">
@@ -2988,8 +2977,8 @@
         <v>79.2</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="13" x14ac:dyDescent="0.3">
-      <c r="A13" s="41">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" s="36">
         <v>9</v>
       </c>
       <c r="B13" t="s">
@@ -2999,8 +2988,8 @@
         <v>78.569999999999993</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="13" x14ac:dyDescent="0.3">
-      <c r="A14" s="41">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" s="36">
         <v>10</v>
       </c>
       <c r="B14" t="s">
@@ -3010,8 +2999,8 @@
         <v>78.39</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="13" x14ac:dyDescent="0.3">
-      <c r="A15" s="41">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15" s="36">
         <v>11</v>
       </c>
       <c r="B15" t="s">
@@ -3021,8 +3010,8 @@
         <v>77.349999999999994</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="13" x14ac:dyDescent="0.3">
-      <c r="A16" s="41">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16" s="36">
         <v>12</v>
       </c>
       <c r="B16" t="s">
@@ -3032,8 +3021,8 @@
         <v>76.87</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="13" x14ac:dyDescent="0.3">
-      <c r="A17" s="41">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" s="36">
         <v>13</v>
       </c>
       <c r="B17" t="s">
@@ -3043,8 +3032,8 @@
         <v>76.819999999999993</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="13" x14ac:dyDescent="0.3">
-      <c r="A18" s="41">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" s="36">
         <v>14</v>
       </c>
       <c r="B18" t="s">
@@ -3054,8 +3043,8 @@
         <v>76.45</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="13" x14ac:dyDescent="0.3">
-      <c r="A19" s="41">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" s="36">
         <v>15</v>
       </c>
       <c r="B19" t="s">
@@ -3065,8 +3054,8 @@
         <v>75.28</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="13" x14ac:dyDescent="0.3">
-      <c r="A20" s="41">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" s="36">
         <v>16</v>
       </c>
       <c r="B20" t="s">
@@ -3076,8 +3065,8 @@
         <v>70.959999999999994</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="13" x14ac:dyDescent="0.3">
-      <c r="A21" s="45">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" s="36">
         <v>17</v>
       </c>
       <c r="B21" t="s">
@@ -3087,37 +3076,37 @@
         <v>69.39</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="13" x14ac:dyDescent="0.3">
-      <c r="A22" s="36"/>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A22" s="33"/>
       <c r="B22" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="37">
+      <c r="C22" s="34">
         <v>79.38</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="61" t="s">
+    <row r="23" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="61"/>
-      <c r="C23" s="61"/>
-    </row>
-    <row r="24" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="68" t="s">
+      <c r="B23" s="50"/>
+      <c r="C23" s="50"/>
+    </row>
+    <row r="24" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="57" t="s">
         <v>65</v>
       </c>
-      <c r="B24" s="68"/>
-      <c r="C24" s="68"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="40"/>
+      <c r="B24" s="57"/>
+      <c r="C24" s="57"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B25" s="35"/>
       <c r="C25" s="1"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="40"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B26" s="35"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="E27" s="1"/>
     </row>
   </sheetData>
@@ -3140,21 +3129,21 @@
       <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" customWidth="1"/>
-    <col min="2" max="2" width="29.453125" customWidth="1"/>
-    <col min="3" max="3" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" customWidth="1"/>
+    <col min="2" max="2" width="29.5" customWidth="1"/>
+    <col min="3" max="3" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="59" t="s">
+    <row r="1" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-    </row>
-    <row r="2" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+    </row>
+    <row r="2" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -3163,11 +3152,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="13" x14ac:dyDescent="0.3">
-      <c r="A3" s="41">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A3" s="36">
         <v>1</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="35" t="s">
         <v>59</v>
       </c>
       <c r="C3">
@@ -3176,11 +3165,11 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:11" ht="13" x14ac:dyDescent="0.3">
-      <c r="A4" s="41">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A4" s="36">
         <v>2</v>
       </c>
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="35" t="s">
         <v>60</v>
       </c>
       <c r="C4">
@@ -3189,19 +3178,19 @@
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:11" ht="13" x14ac:dyDescent="0.3">
-      <c r="A5" s="41">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A5" s="36">
         <v>3</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="35" t="s">
         <v>61</v>
       </c>
       <c r="C5">
         <v>81.31</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="13" x14ac:dyDescent="0.3">
-      <c r="A6" s="41">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A6" s="36">
         <v>4</v>
       </c>
       <c r="B6" t="s">
@@ -3211,8 +3200,8 @@
         <v>80.239999999999995</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="13" x14ac:dyDescent="0.3">
-      <c r="A7" s="41">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A7" s="36">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -3222,41 +3211,41 @@
         <v>79.52</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="13" x14ac:dyDescent="0.3">
-      <c r="A8" s="41">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A8" s="36">
         <v>6</v>
       </c>
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="35" t="s">
         <v>57</v>
       </c>
       <c r="C8">
         <v>78.73</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="13" x14ac:dyDescent="0.3">
-      <c r="A9" s="41">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A9" s="36">
         <v>7</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="31" t="s">
         <v>62</v>
       </c>
       <c r="C9">
         <v>77.430000000000007</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="13" x14ac:dyDescent="0.3">
-      <c r="A10" s="41">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A10" s="36">
         <v>8</v>
       </c>
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="35" t="s">
         <v>63</v>
       </c>
       <c r="C10">
         <v>75.180000000000007</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="13" x14ac:dyDescent="0.3">
-      <c r="A11" s="41">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A11" s="36">
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -3266,8 +3255,8 @@
         <v>73.5</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="13" x14ac:dyDescent="0.3">
-      <c r="A12" s="41">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A12" s="36">
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -3277,8 +3266,8 @@
         <v>73.14</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="13" x14ac:dyDescent="0.3">
-      <c r="A13" s="36"/>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A13" s="33"/>
       <c r="B13" s="7" t="s">
         <v>4</v>
       </c>
@@ -3286,21 +3275,21 @@
         <v>78.97</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="61" t="s">
+    <row r="14" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="61"/>
-      <c r="C14" s="61"/>
-    </row>
-    <row r="15" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="69" t="s">
+      <c r="B14" s="50"/>
+      <c r="C14" s="50"/>
+    </row>
+    <row r="15" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="B15" s="69"/>
-      <c r="C15" s="69"/>
-      <c r="I15" s="44"/>
-      <c r="J15" s="44"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="58"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="37"/>
       <c r="K15" s="1"/>
     </row>
   </sheetData>
@@ -3323,21 +3312,21 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" customWidth="1"/>
-    <col min="2" max="2" width="29.453125" customWidth="1"/>
-    <col min="3" max="3" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" customWidth="1"/>
+    <col min="2" max="2" width="29.5" customWidth="1"/>
+    <col min="3" max="3" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="13" x14ac:dyDescent="0.3">
-      <c r="A1" s="59" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-    </row>
-    <row r="2" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+    </row>
+    <row r="2" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -3346,8 +3335,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="13" x14ac:dyDescent="0.3">
-      <c r="A3" s="41">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="36">
         <v>1</v>
       </c>
       <c r="B3" t="s">
@@ -3358,8 +3347,8 @@
       </c>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:4" ht="13" x14ac:dyDescent="0.3">
-      <c r="A4" s="41">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="36">
         <v>2</v>
       </c>
       <c r="B4" t="s">
@@ -3370,8 +3359,8 @@
       </c>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:4" ht="13" x14ac:dyDescent="0.3">
-      <c r="A5" s="41">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="36">
         <v>3</v>
       </c>
       <c r="B5" t="s">
@@ -3381,8 +3370,8 @@
         <v>80.930000000000007</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="13" x14ac:dyDescent="0.3">
-      <c r="A6" s="41">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="36">
         <v>4</v>
       </c>
       <c r="B6" t="s">
@@ -3392,8 +3381,8 @@
         <v>80.3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="13" x14ac:dyDescent="0.3">
-      <c r="A7" s="41">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="36">
         <v>5</v>
       </c>
       <c r="B7" t="s">
@@ -3403,8 +3392,8 @@
         <v>80.239999999999995</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="13" x14ac:dyDescent="0.3">
-      <c r="A8" s="41">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="36">
         <v>6</v>
       </c>
       <c r="B8" t="s">
@@ -3414,8 +3403,8 @@
         <v>79.52</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="13" x14ac:dyDescent="0.3">
-      <c r="A9" s="41">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="36">
         <v>7</v>
       </c>
       <c r="B9" t="s">
@@ -3425,8 +3414,8 @@
         <v>79.23</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="13" x14ac:dyDescent="0.3">
-      <c r="A10" s="41">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" s="36">
         <v>8</v>
       </c>
       <c r="B10" t="s">
@@ -3436,8 +3425,8 @@
         <v>78.73</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="13" x14ac:dyDescent="0.3">
-      <c r="A11" s="41">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" s="36">
         <v>9</v>
       </c>
       <c r="B11" t="s">
@@ -3447,8 +3436,8 @@
         <v>78.66</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="13" x14ac:dyDescent="0.3">
-      <c r="A12" s="41">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" s="36">
         <v>10</v>
       </c>
       <c r="B12" t="s">
@@ -3458,8 +3447,8 @@
         <v>78.09</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="13" x14ac:dyDescent="0.3">
-      <c r="A13" s="41">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" s="36">
         <v>11</v>
       </c>
       <c r="B13" t="s">
@@ -3469,8 +3458,8 @@
         <v>77.739999999999995</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="13" x14ac:dyDescent="0.3">
-      <c r="A14" s="41">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" s="36">
         <v>12</v>
       </c>
       <c r="B14" t="s">
@@ -3480,8 +3469,8 @@
         <v>77.010000000000005</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="13" x14ac:dyDescent="0.3">
-      <c r="A15" s="41">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15" s="36">
         <v>13</v>
       </c>
       <c r="B15" t="s">
@@ -3491,8 +3480,8 @@
         <v>76.31</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="13" x14ac:dyDescent="0.3">
-      <c r="A16" s="41">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16" s="36">
         <v>14</v>
       </c>
       <c r="B16" t="s">
@@ -3502,8 +3491,8 @@
         <v>76.09</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="A17" s="41">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" s="36">
         <v>15</v>
       </c>
       <c r="B17" t="s">
@@ -3513,8 +3502,8 @@
         <v>73.5</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="A18" s="41">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" s="36">
         <v>16</v>
       </c>
       <c r="B18" t="s">
@@ -3524,8 +3513,8 @@
         <v>73.14</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="A19" s="41">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" s="36">
         <v>17</v>
       </c>
       <c r="B19" t="s">
@@ -3535,8 +3524,8 @@
         <v>70.64</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="A20" s="36"/>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" s="33"/>
       <c r="B20" s="7" t="s">
         <v>4</v>
       </c>
@@ -3544,12 +3533,12 @@
         <v>79.209999999999994</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="61" t="s">
+    <row r="21" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="61"/>
-      <c r="C21" s="61"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3570,22 +3559,22 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" customWidth="1"/>
-    <col min="2" max="2" width="29.453125" customWidth="1"/>
-    <col min="3" max="3" width="22.54296875" customWidth="1"/>
-    <col min="4" max="4" width="28.54296875" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" customWidth="1"/>
+    <col min="2" max="2" width="29.5" customWidth="1"/>
+    <col min="3" max="3" width="22.5" customWidth="1"/>
+    <col min="4" max="4" width="28.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
-      <c r="A1" s="59" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-    </row>
-    <row r="2" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+    </row>
+    <row r="2" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -3594,8 +3583,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="13" x14ac:dyDescent="0.3">
-      <c r="A3" s="41">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="36">
         <v>1</v>
       </c>
       <c r="B3" t="s">
@@ -3606,8 +3595,8 @@
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" ht="13" x14ac:dyDescent="0.3">
-      <c r="A4" s="41">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="36">
         <v>2</v>
       </c>
       <c r="B4" t="s">
@@ -3618,8 +3607,8 @@
       </c>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" ht="13" x14ac:dyDescent="0.3">
-      <c r="A5" s="41">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="36">
         <v>3</v>
       </c>
       <c r="B5" t="s">
@@ -3630,8 +3619,8 @@
       </c>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" ht="13" x14ac:dyDescent="0.3">
-      <c r="A6" s="41">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="36">
         <v>4</v>
       </c>
       <c r="B6" t="s">
@@ -3642,11 +3631,11 @@
       </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" ht="13" x14ac:dyDescent="0.3">
-      <c r="A7" s="41">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="36">
         <v>5</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="31" t="s">
         <v>43</v>
       </c>
       <c r="C7" s="1">
@@ -3654,8 +3643,8 @@
       </c>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5" ht="13" x14ac:dyDescent="0.3">
-      <c r="A8" s="41">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" s="36">
         <v>6</v>
       </c>
       <c r="B8" t="s">
@@ -3666,8 +3655,8 @@
       </c>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" ht="13" x14ac:dyDescent="0.3">
-      <c r="A9" s="41">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="36">
         <v>7</v>
       </c>
       <c r="B9" t="s">
@@ -3678,8 +3667,8 @@
       </c>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" ht="13" x14ac:dyDescent="0.3">
-      <c r="A10" s="41">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" s="36">
         <v>8</v>
       </c>
       <c r="B10" t="s">
@@ -3690,8 +3679,8 @@
       </c>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" ht="13" x14ac:dyDescent="0.3">
-      <c r="A11" s="41">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" s="36">
         <v>9</v>
       </c>
       <c r="B11" t="s">
@@ -3702,11 +3691,11 @@
       </c>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" ht="13" x14ac:dyDescent="0.3">
-      <c r="A12" s="41">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" s="36">
         <v>10</v>
       </c>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="31" t="s">
         <v>44</v>
       </c>
       <c r="C12" s="1">
@@ -3714,11 +3703,11 @@
       </c>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" ht="13" x14ac:dyDescent="0.3">
-      <c r="A13" s="41">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" s="36">
         <v>11</v>
       </c>
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="31" t="s">
         <v>46</v>
       </c>
       <c r="C13" s="1">
@@ -3726,8 +3715,8 @@
       </c>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" ht="13" x14ac:dyDescent="0.3">
-      <c r="A14" s="41">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14" s="36">
         <v>12</v>
       </c>
       <c r="B14" t="s">
@@ -3738,8 +3727,8 @@
       </c>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" ht="13" x14ac:dyDescent="0.3">
-      <c r="A15" s="41">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15" s="36">
         <v>13</v>
       </c>
       <c r="B15" t="s">
@@ -3750,8 +3739,8 @@
       </c>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" ht="13" x14ac:dyDescent="0.3">
-      <c r="A16" s="41">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16" s="36">
         <v>14</v>
       </c>
       <c r="B16" t="s">
@@ -3762,8 +3751,8 @@
       </c>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:5" ht="13" x14ac:dyDescent="0.3">
-      <c r="A17" s="41">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" s="36">
         <v>15</v>
       </c>
       <c r="B17" t="s">
@@ -3774,8 +3763,8 @@
       </c>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:5" ht="13" x14ac:dyDescent="0.3">
-      <c r="A18" s="41">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" s="36">
         <v>16</v>
       </c>
       <c r="B18" t="s">
@@ -3786,11 +3775,11 @@
       </c>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:5" ht="13" x14ac:dyDescent="0.3">
-      <c r="A19" s="41">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" s="36">
         <v>17</v>
       </c>
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="31" t="s">
         <v>42</v>
       </c>
       <c r="C19" s="1">
@@ -3798,11 +3787,11 @@
       </c>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:5" ht="13" x14ac:dyDescent="0.3">
-      <c r="A20" s="41">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" s="36">
         <v>18</v>
       </c>
-      <c r="B20" s="34" t="s">
+      <c r="B20" s="31" t="s">
         <v>45</v>
       </c>
       <c r="C20" s="1">
@@ -3810,8 +3799,8 @@
       </c>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:5" ht="13" x14ac:dyDescent="0.3">
-      <c r="A21" s="41">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" s="36">
         <v>19</v>
       </c>
       <c r="B21" t="s">
@@ -3822,27 +3811,27 @@
       </c>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" s="5"/>
       <c r="B22" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="35">
+      <c r="C22" s="32">
         <v>78.08</v>
       </c>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="61" t="s">
+    <row r="23" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="61"/>
-      <c r="C23" s="61"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="60"/>
-      <c r="B24" s="60"/>
-      <c r="C24" s="60"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="50"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A24" s="49"/>
+      <c r="B24" s="49"/>
+      <c r="C24" s="49"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:C22">
@@ -3867,21 +3856,21 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.90625" customWidth="1"/>
-    <col min="2" max="2" width="29.453125" customWidth="1"/>
-    <col min="3" max="3" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" customWidth="1"/>
+    <col min="2" max="2" width="29.5" customWidth="1"/>
+    <col min="3" max="3" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="59" t="s">
+    <row r="1" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="48" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-    </row>
-    <row r="2" spans="1:11" ht="44.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+    </row>
+    <row r="2" spans="1:11" ht="44.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -3890,11 +3879,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="13" x14ac:dyDescent="0.3">
-      <c r="A3" s="41">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A3" s="36">
         <v>1</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="35" t="s">
         <v>59</v>
       </c>
       <c r="C3" s="1">
@@ -3903,11 +3892,11 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:11" ht="13" x14ac:dyDescent="0.3">
-      <c r="A4" s="41">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A4" s="36">
         <v>2</v>
       </c>
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="35" t="s">
         <v>60</v>
       </c>
       <c r="C4" s="1">
@@ -3916,8 +3905,8 @@
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:11" ht="13" x14ac:dyDescent="0.3">
-      <c r="A5" s="41">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A5" s="36">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -3927,19 +3916,19 @@
         <v>86.61</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="13" x14ac:dyDescent="0.3">
-      <c r="A6" s="41">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A6" s="36">
         <v>4</v>
       </c>
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="35" t="s">
         <v>61</v>
       </c>
       <c r="C6" s="1">
         <v>86.31</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="13" x14ac:dyDescent="0.3">
-      <c r="A7" s="41">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A7" s="36">
         <v>5</v>
       </c>
       <c r="B7" t="s">
@@ -3949,8 +3938,8 @@
         <v>85.98</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="13" x14ac:dyDescent="0.3">
-      <c r="A8" s="41">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A8" s="36">
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -3960,30 +3949,30 @@
         <v>83.87</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="13" x14ac:dyDescent="0.3">
-      <c r="A9" s="41">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A9" s="36">
         <v>7</v>
       </c>
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="35" t="s">
         <v>63</v>
       </c>
       <c r="C9" s="1">
         <v>83.75</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="13" x14ac:dyDescent="0.3">
-      <c r="A10" s="41">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A10" s="36">
         <v>8</v>
       </c>
-      <c r="B10" s="49" t="s">
+      <c r="B10" s="31" t="s">
         <v>62</v>
       </c>
       <c r="C10" s="1">
         <v>82.32</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="13" x14ac:dyDescent="0.3">
-      <c r="A11" s="41">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A11" s="36">
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -3993,41 +3982,41 @@
         <v>82.14</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="13" x14ac:dyDescent="0.3">
-      <c r="A12" s="41">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A12" s="36">
         <v>10</v>
       </c>
-      <c r="B12" s="42" t="s">
+      <c r="B12" s="35" t="s">
         <v>57</v>
       </c>
       <c r="C12" s="1">
         <v>71.33</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="13" x14ac:dyDescent="0.3">
-      <c r="A13" s="36"/>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A13" s="33"/>
       <c r="B13" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="35">
+      <c r="C13" s="32">
         <v>84.5</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="61" t="s">
+    <row r="14" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="61"/>
-      <c r="C14" s="61"/>
-    </row>
-    <row r="15" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="69" t="s">
+      <c r="B14" s="50"/>
+      <c r="C14" s="50"/>
+    </row>
+    <row r="15" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="B15" s="69"/>
-      <c r="C15" s="69"/>
-      <c r="I15" s="44"/>
-      <c r="J15" s="44"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="58"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="37"/>
       <c r="K15" s="1"/>
     </row>
   </sheetData>
@@ -4049,25 +4038,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" customWidth="1"/>
-    <col min="2" max="2" width="29.453125" customWidth="1"/>
-    <col min="3" max="3" width="22.6328125" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" customWidth="1"/>
+    <col min="2" max="2" width="29.5" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="12.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="59" t="s">
+    <row r="1" spans="1:4" ht="12.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="48" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-    </row>
-    <row r="2" spans="1:4" ht="29.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+    </row>
+    <row r="2" spans="1:4" ht="29.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -4076,8 +4065,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="12.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="41">
+    <row r="3" spans="1:4" ht="12.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="36">
         <v>1</v>
       </c>
       <c r="B3" t="s">
@@ -4088,8 +4077,8 @@
       </c>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:4" ht="13" x14ac:dyDescent="0.3">
-      <c r="A4" s="41">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="36">
         <v>2</v>
       </c>
       <c r="B4" t="s">
@@ -4100,8 +4089,8 @@
       </c>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:4" ht="13" x14ac:dyDescent="0.3">
-      <c r="A5" s="41">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="36">
         <v>3</v>
       </c>
       <c r="B5" t="s">
@@ -4111,8 +4100,8 @@
         <v>86.93</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="13" x14ac:dyDescent="0.3">
-      <c r="A6" s="41">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="36">
         <v>4</v>
       </c>
       <c r="B6" t="s">
@@ -4122,8 +4111,8 @@
         <v>86.61</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="13" x14ac:dyDescent="0.3">
-      <c r="A7" s="41">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="36">
         <v>5</v>
       </c>
       <c r="B7" t="s">
@@ -4133,8 +4122,8 @@
         <v>86.32</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="13" x14ac:dyDescent="0.3">
-      <c r="A8" s="41">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="36">
         <v>6</v>
       </c>
       <c r="B8" t="s">
@@ -4144,8 +4133,8 @@
         <v>85.98</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="13" x14ac:dyDescent="0.3">
-      <c r="A9" s="41">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="36">
         <v>7</v>
       </c>
       <c r="B9" t="s">
@@ -4155,8 +4144,8 @@
         <v>85.89</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="13" x14ac:dyDescent="0.3">
-      <c r="A10" s="41">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" s="36">
         <v>8</v>
       </c>
       <c r="B10" t="s">
@@ -4166,8 +4155,8 @@
         <v>84.85</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="13" x14ac:dyDescent="0.3">
-      <c r="A11" s="41">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" s="36">
         <v>9</v>
       </c>
       <c r="B11" t="s">
@@ -4177,8 +4166,8 @@
         <v>83.87</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="13" x14ac:dyDescent="0.3">
-      <c r="A12" s="41">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" s="36">
         <v>10</v>
       </c>
       <c r="B12" t="s">
@@ -4188,8 +4177,8 @@
         <v>83.56</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="13" x14ac:dyDescent="0.3">
-      <c r="A13" s="41">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" s="36">
         <v>11</v>
       </c>
       <c r="B13" t="s">
@@ -4199,8 +4188,8 @@
         <v>83.37</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="13" x14ac:dyDescent="0.3">
-      <c r="A14" s="41">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" s="36">
         <v>12</v>
       </c>
       <c r="B14" t="s">
@@ -4210,8 +4199,8 @@
         <v>82.14</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="13" x14ac:dyDescent="0.3">
-      <c r="A15" s="41">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15" s="36">
         <v>13</v>
       </c>
       <c r="B15" t="s">
@@ -4221,19 +4210,19 @@
         <v>81.98</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="13" x14ac:dyDescent="0.3">
-      <c r="A16" s="41">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16" s="36">
         <v>14</v>
       </c>
-      <c r="B16" s="49" t="s">
+      <c r="B16" s="31" t="s">
         <v>89</v>
       </c>
       <c r="C16">
         <v>81.84</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="A17" s="41">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" s="36">
         <v>15</v>
       </c>
       <c r="B17" t="s">
@@ -4243,8 +4232,8 @@
         <v>81.61</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="A18" s="41">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" s="36">
         <v>16</v>
       </c>
       <c r="B18" t="s">
@@ -4254,8 +4243,8 @@
         <v>79.3</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="A19" s="41">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" s="36">
         <v>17</v>
       </c>
       <c r="B19" t="s">
@@ -4265,8 +4254,8 @@
         <v>71.33</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="A20" s="36"/>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" s="33"/>
       <c r="B20" s="7" t="s">
         <v>4</v>
       </c>
@@ -4274,19 +4263,19 @@
         <v>84.63</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="61" t="s">
+    <row r="21" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="61"/>
-      <c r="C21" s="61"/>
-    </row>
-    <row r="22" spans="1:3" ht="29.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="69" t="s">
+      <c r="B21" s="50"/>
+      <c r="C21" s="50"/>
+    </row>
+    <row r="22" spans="1:3" ht="29.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="58" t="s">
         <v>90</v>
       </c>
-      <c r="B22" s="69"/>
-      <c r="C22" s="69"/>
+      <c r="B22" s="58"/>
+      <c r="C22" s="58"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:C19">
@@ -4311,21 +4300,21 @@
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.90625" customWidth="1"/>
-    <col min="2" max="2" width="29.453125" customWidth="1"/>
-    <col min="3" max="3" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" customWidth="1"/>
+    <col min="2" max="2" width="29.5" customWidth="1"/>
+    <col min="3" max="3" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="12.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="59" t="s">
+    <row r="1" spans="1:3" ht="12.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="48" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-    </row>
-    <row r="2" spans="1:3" ht="44.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+    </row>
+    <row r="2" spans="1:3" ht="44.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -4334,8 +4323,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="A3" s="51">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="41">
         <v>1</v>
       </c>
       <c r="B3" t="s">
@@ -4345,8 +4334,8 @@
         <v>90.14</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="A4" s="51">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="41">
         <v>2</v>
       </c>
       <c r="B4" t="s">
@@ -4356,8 +4345,8 @@
         <v>88.22</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="A5" s="51">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="41">
         <v>3</v>
       </c>
       <c r="B5" t="s">
@@ -4367,8 +4356,8 @@
         <v>83.17</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="A6" s="51">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="41">
         <v>4</v>
       </c>
       <c r="B6" t="s">
@@ -4378,8 +4367,8 @@
         <v>81.58</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="A7" s="51">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="41">
         <v>5</v>
       </c>
       <c r="B7" t="s">
@@ -4389,8 +4378,8 @@
         <v>79.81</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="A8" s="51">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="41">
         <v>6</v>
       </c>
       <c r="B8" t="s">
@@ -4400,8 +4389,8 @@
         <v>76.739999999999995</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="A9" s="51">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" s="41">
         <v>7</v>
       </c>
       <c r="B9" t="s">
@@ -4411,8 +4400,8 @@
         <v>76.64</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="A10" s="51">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" s="41">
         <v>8</v>
       </c>
       <c r="B10" t="s">
@@ -4422,8 +4411,8 @@
         <v>75.78</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="A11" s="51">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" s="41">
         <v>9</v>
       </c>
       <c r="B11" t="s">
@@ -4433,8 +4422,8 @@
         <v>72.31</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="A12" s="51">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" s="41">
         <v>10</v>
       </c>
       <c r="B12" t="s">
@@ -4444,27 +4433,27 @@
         <v>68.260000000000005</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="B13" s="51" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B13" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="51">
+      <c r="C13" s="41">
         <v>81.08</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="61" t="s">
+    <row r="14" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="61"/>
-      <c r="C14" s="61"/>
-    </row>
-    <row r="15" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="69" t="s">
+      <c r="B14" s="50"/>
+      <c r="C14" s="50"/>
+    </row>
+    <row r="15" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="B15" s="69"/>
-      <c r="C15" s="69"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4481,24 +4470,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAD472AA-67A3-4E5B-A600-F5A2557E90A1}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" customWidth="1"/>
-    <col min="2" max="2" width="47.1796875" customWidth="1"/>
-    <col min="3" max="3" width="22.6328125" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" customWidth="1"/>
+    <col min="2" max="2" width="47.1640625" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="12.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="59" t="s">
+    <row r="1" spans="1:3" ht="12.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="48" t="s">
         <v>102</v>
       </c>
-      <c r="B1" s="60"/>
-    </row>
-    <row r="2" spans="1:3" ht="29.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="49"/>
+    </row>
+    <row r="2" spans="1:3" ht="29.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -4507,208 +4496,208 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="50">
+    <row r="3" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A3" s="31">
         <v>1</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="42" t="s">
         <v>114</v>
       </c>
-      <c r="C3" s="53">
+      <c r="C3" s="43">
         <v>90.98</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="50">
+    <row r="4" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A4" s="31">
         <v>2</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="C4" s="53">
+      <c r="C4" s="43">
         <v>90.15</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="50">
+    <row r="5" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A5" s="31">
         <v>3</v>
       </c>
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="C5" s="53">
+      <c r="C5" s="43">
         <v>87.85</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="50">
+    <row r="6" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A6" s="31">
         <v>4</v>
       </c>
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="42" t="s">
         <v>119</v>
       </c>
-      <c r="C6" s="53">
+      <c r="C6" s="43">
         <v>85.26</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="50">
+    <row r="7" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A7" s="31">
         <v>5</v>
       </c>
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="42" t="s">
         <v>116</v>
       </c>
-      <c r="C7" s="53">
+      <c r="C7" s="43">
         <v>84.52</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="50">
+    <row r="8" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A8" s="31">
         <v>6</v>
       </c>
-      <c r="B8" s="52" t="s">
+      <c r="B8" s="42" t="s">
         <v>113</v>
       </c>
-      <c r="C8" s="53">
+      <c r="C8" s="43">
         <v>84.35</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="50">
+    <row r="9" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A9" s="31">
         <v>7</v>
       </c>
-      <c r="B9" s="52" t="s">
+      <c r="B9" s="42" t="s">
         <v>115</v>
       </c>
-      <c r="C9" s="53">
+      <c r="C9" s="43">
         <v>82.45</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="50">
+    <row r="10" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A10" s="31">
         <v>8</v>
       </c>
-      <c r="B10" s="52" t="s">
+      <c r="B10" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="C10" s="53">
+      <c r="C10" s="43">
         <v>82.32</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="50">
+    <row r="11" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A11" s="31">
         <v>9</v>
       </c>
-      <c r="B11" s="52" t="s">
+      <c r="B11" s="42" t="s">
         <v>107</v>
       </c>
-      <c r="C11" s="53">
+      <c r="C11" s="43">
         <v>81.34</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="50">
+    <row r="12" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A12" s="31">
         <v>10</v>
       </c>
-      <c r="B12" s="52" t="s">
+      <c r="B12" s="42" t="s">
         <v>106</v>
       </c>
-      <c r="C12" s="53">
+      <c r="C12" s="43">
         <v>81.22</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="50">
+    <row r="13" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A13" s="31">
         <v>11</v>
       </c>
-      <c r="B13" s="52" t="s">
+      <c r="B13" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="C13" s="53">
+      <c r="C13" s="43">
         <v>80.53</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="50">
+    <row r="14" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A14" s="31">
         <v>12</v>
       </c>
-      <c r="B14" s="52" t="s">
+      <c r="B14" s="42" t="s">
         <v>120</v>
       </c>
-      <c r="C14" s="53">
+      <c r="C14" s="43">
         <v>77.14</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="50">
+    <row r="15" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A15" s="31">
         <v>13</v>
       </c>
-      <c r="B15" s="52" t="s">
+      <c r="B15" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="C15" s="53">
+      <c r="C15" s="43">
         <v>76.739999999999995</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="50">
+    <row r="16" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A16" s="31">
         <v>14</v>
       </c>
-      <c r="B16" s="52" t="s">
+      <c r="B16" s="42" t="s">
         <v>98</v>
       </c>
-      <c r="C16" s="53">
+      <c r="C16" s="43">
         <v>76.64</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="50">
+    <row r="17" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A17" s="31">
         <v>15</v>
       </c>
-      <c r="B17" s="52" t="s">
+      <c r="B17" s="42" t="s">
         <v>99</v>
       </c>
-      <c r="C17" s="53">
+      <c r="C17" s="43">
         <v>75.78</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="50">
+    <row r="18" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A18" s="31">
         <v>16</v>
       </c>
-      <c r="B18" s="52" t="s">
+      <c r="B18" s="42" t="s">
         <v>100</v>
       </c>
-      <c r="C18" s="53">
+      <c r="C18" s="43">
         <v>72.31</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="50">
+    <row r="19" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A19" s="31">
         <v>17</v>
       </c>
-      <c r="B19" s="52" t="s">
+      <c r="B19" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="C19" s="53">
+      <c r="C19" s="43">
         <v>68.260000000000005</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="A20" s="50"/>
-      <c r="B20" s="54" t="s">
+    <row r="20" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A20" s="31"/>
+      <c r="B20" s="44" t="s">
         <v>103</v>
       </c>
-      <c r="C20" s="55">
+      <c r="C20" s="45">
         <v>81.19</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="29.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="61" t="s">
+    <row r="21" spans="1:3" ht="29.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="61"/>
-      <c r="C21" s="61"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4725,23 +4714,23 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="29.453125" customWidth="1"/>
-    <col min="3" max="3" width="22.54296875" customWidth="1"/>
+    <col min="2" max="2" width="29.5" customWidth="1"/>
+    <col min="3" max="3" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="12.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="59" t="s">
+    <row r="1" spans="1:3" ht="12.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-    </row>
-    <row r="2" spans="1:3" ht="44.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+    </row>
+    <row r="2" spans="1:3" ht="44.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -4750,51 +4739,51 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="31" t="s">
         <v>93</v>
       </c>
       <c r="C3" s="1">
         <v>82.14</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="31" t="s">
         <v>94</v>
       </c>
       <c r="C4" s="1">
         <v>79.06</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="31" t="s">
         <v>96</v>
       </c>
       <c r="C5" s="1">
         <v>78.739999999999995</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="31" t="s">
         <v>95</v>
       </c>
       <c r="C6" s="1">
         <v>77.150000000000006</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>5</v>
       </c>
@@ -4805,7 +4794,7 @@
         <v>75.77</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>6</v>
       </c>
@@ -4816,7 +4805,7 @@
         <v>73.180000000000007</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>7</v>
       </c>
@@ -4827,7 +4816,7 @@
         <v>72.959999999999994</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>8</v>
       </c>
@@ -4838,7 +4827,7 @@
         <v>66.099999999999994</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>9</v>
       </c>
@@ -4849,7 +4838,7 @@
         <v>64.63</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>10</v>
       </c>
@@ -4860,30 +4849,30 @@
         <v>63.39</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="B13" s="51" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B13" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="56">
+      <c r="C13" s="46">
         <v>76.72</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="61" t="s">
+    <row r="14" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="61"/>
-      <c r="C14" s="61"/>
-    </row>
-    <row r="15" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="69" t="s">
+      <c r="B14" s="50"/>
+      <c r="C14" s="50"/>
+    </row>
+    <row r="15" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="B15" s="69"/>
-      <c r="C15" s="69"/>
-    </row>
-    <row r="16" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="B15" s="58"/>
+      <c r="C15" s="58"/>
+    </row>
+    <row r="16" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="31" t="s">
         <v>121</v>
       </c>
     </row>
@@ -4902,24 +4891,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90FB73E7-A757-46E3-B173-897109C109A7}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A22" sqref="A22:XFD22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" customWidth="1"/>
-    <col min="2" max="2" width="46.81640625" customWidth="1"/>
-    <col min="3" max="3" width="22.6328125" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" customWidth="1"/>
+    <col min="2" max="2" width="46.83203125" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="12.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="59" t="s">
+    <row r="1" spans="1:3" ht="12.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="59"/>
-    </row>
-    <row r="2" spans="1:3" ht="29.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="48"/>
+    </row>
+    <row r="2" spans="1:3" ht="29.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -4928,207 +4917,207 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="C3" s="53">
+      <c r="C3" s="43">
         <v>82.53</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="42" t="s">
         <v>119</v>
       </c>
-      <c r="C4" s="53">
+      <c r="C4" s="43">
         <v>81.790000000000006</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="42" t="s">
         <v>115</v>
       </c>
-      <c r="C5" s="53">
+      <c r="C5" s="43">
         <v>81.61</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="C6" s="53">
+      <c r="C6" s="43">
         <v>80.650000000000006</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="42" t="s">
         <v>114</v>
       </c>
-      <c r="C7" s="53">
+      <c r="C7" s="43">
         <v>80.53</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" s="52" t="s">
+      <c r="B8" s="42" t="s">
         <v>107</v>
       </c>
-      <c r="C8" s="53">
+      <c r="C8" s="43">
         <v>79.010000000000005</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9" s="52" t="s">
+      <c r="B9" s="42" t="s">
         <v>116</v>
       </c>
-      <c r="C9" s="53">
+      <c r="C9" s="43">
         <v>77.959999999999994</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10" s="52" t="s">
+      <c r="B10" s="42" t="s">
         <v>120</v>
       </c>
-      <c r="C10" s="53">
+      <c r="C10" s="43">
         <v>77.430000000000007</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11" s="52" t="s">
+      <c r="B11" s="42" t="s">
         <v>106</v>
       </c>
-      <c r="C11" s="53">
+      <c r="C11" s="43">
         <v>77.28</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>10</v>
       </c>
-      <c r="B12" s="52" t="s">
+      <c r="B12" s="42" t="s">
         <v>113</v>
       </c>
-      <c r="C12" s="53">
+      <c r="C12" s="43">
         <v>76.42</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>11</v>
       </c>
-      <c r="B13" s="52" t="s">
+      <c r="B13" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="C13" s="53">
+      <c r="C13" s="43">
         <v>75.77</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>12</v>
       </c>
-      <c r="B14" s="52" t="s">
+      <c r="B14" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="C14" s="53">
+      <c r="C14" s="43">
         <v>74.94</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>13</v>
       </c>
-      <c r="B15" s="52" t="s">
+      <c r="B15" s="42" t="s">
         <v>99</v>
       </c>
-      <c r="C15" s="53">
+      <c r="C15" s="43">
         <v>73.180000000000007</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>14</v>
       </c>
-      <c r="B16" s="52" t="s">
+      <c r="B16" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="C16" s="53">
+      <c r="C16" s="43">
         <v>72.959999999999994</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>15</v>
       </c>
-      <c r="B17" s="52" t="s">
+      <c r="B17" s="42" t="s">
         <v>98</v>
       </c>
-      <c r="C17" s="53">
+      <c r="C17" s="43">
         <v>66.099999999999994</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>16</v>
       </c>
-      <c r="B18" s="52" t="s">
+      <c r="B18" s="42" t="s">
         <v>100</v>
       </c>
-      <c r="C18" s="53">
+      <c r="C18" s="43">
         <v>64.63</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>17</v>
       </c>
-      <c r="B19" s="52" t="s">
+      <c r="B19" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="C19" s="53">
+      <c r="C19" s="43">
         <v>63.39</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="B20" s="58" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B20" s="41" t="s">
         <v>103</v>
       </c>
-      <c r="C20" s="57">
+      <c r="C20" s="47">
         <v>76.61</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="29.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="61" t="s">
+    <row r="21" spans="1:3" ht="29.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="61"/>
-      <c r="C21" s="61"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5144,24 +5133,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDAE1F0D-1178-40E0-93BB-9151B92DF25E}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A61" workbookViewId="0">
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="29.453125" customWidth="1"/>
-    <col min="3" max="3" width="30.54296875" customWidth="1"/>
+    <col min="2" max="2" width="29.5" customWidth="1"/>
+    <col min="3" max="3" width="30.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="12.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="59" t="s">
+    <row r="1" spans="1:4" ht="12.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="48" t="s">
         <v>111</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-    </row>
-    <row r="2" spans="1:4" ht="44.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+    </row>
+    <row r="2" spans="1:4" ht="44.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -5170,137 +5159,137 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="13" x14ac:dyDescent="0.3">
-      <c r="A3" s="51">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="41">
         <v>1</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="31" t="s">
         <v>93</v>
       </c>
       <c r="C3" s="1">
         <v>83.52</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="13" x14ac:dyDescent="0.3">
-      <c r="A4" s="51">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="41">
         <v>2</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="31" t="s">
         <v>94</v>
       </c>
       <c r="C4" s="1">
         <v>81.06</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="13" x14ac:dyDescent="0.3">
-      <c r="A5" s="51">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="41">
         <v>3</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="31" t="s">
         <v>95</v>
       </c>
       <c r="C5" s="1">
         <v>78.88</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="13" x14ac:dyDescent="0.3">
-      <c r="A6" s="51">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="41">
         <v>4</v>
       </c>
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="31" t="s">
         <v>96</v>
       </c>
       <c r="C6" s="1">
         <v>78.47</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="13" x14ac:dyDescent="0.3">
-      <c r="A7" s="51">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="41">
         <v>5</v>
       </c>
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="31" t="s">
         <v>99</v>
       </c>
       <c r="C7" s="1">
         <v>77.25</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="13" x14ac:dyDescent="0.3">
-      <c r="A8" s="51">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="41">
         <v>6</v>
       </c>
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="31" t="s">
         <v>109</v>
       </c>
       <c r="C8" s="1">
         <v>75.2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="13" x14ac:dyDescent="0.3">
-      <c r="A9" s="51">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="41">
         <v>7</v>
       </c>
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="31" t="s">
         <v>101</v>
       </c>
       <c r="C9" s="1">
         <v>73.37</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="13" x14ac:dyDescent="0.3">
-      <c r="A10" s="51">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" s="41">
         <v>8</v>
       </c>
-      <c r="B10" s="50" t="s">
+      <c r="B10" s="31" t="s">
         <v>97</v>
       </c>
       <c r="C10" s="1">
         <v>69.510000000000005</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="13" x14ac:dyDescent="0.3">
-      <c r="A11" s="51">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" s="41">
         <v>9</v>
       </c>
-      <c r="B11" s="50" t="s">
+      <c r="B11" s="31" t="s">
         <v>100</v>
       </c>
       <c r="C11" s="1">
         <v>67.08</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="13" x14ac:dyDescent="0.3">
-      <c r="A12" s="51">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" s="41">
         <v>10</v>
       </c>
-      <c r="B12" s="50" t="s">
+      <c r="B12" s="31" t="s">
         <v>98</v>
       </c>
       <c r="C12" s="1">
         <v>66.989999999999995</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="13" x14ac:dyDescent="0.3">
-      <c r="B13" s="51" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B13" s="41" t="s">
         <v>103</v>
       </c>
-      <c r="C13" s="56">
+      <c r="C13" s="46">
         <v>78.34</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="61" t="s">
+    <row r="14" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="61"/>
-      <c r="D14" s="61"/>
-    </row>
-    <row r="15" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="69" t="s">
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+    </row>
+    <row r="15" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="C15" s="69"/>
-      <c r="D15" s="69"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5317,24 +5306,24 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" customWidth="1"/>
-    <col min="2" max="2" width="29.453125" customWidth="1"/>
-    <col min="3" max="3" width="22.6328125" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" customWidth="1"/>
+    <col min="2" max="2" width="29.5" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="12.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="70" t="s">
+    <row r="1" spans="1:3" ht="12.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="59" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-    </row>
-    <row r="2" spans="1:3" ht="29.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+    </row>
+    <row r="2" spans="1:3" ht="29.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -5343,187 +5332,187 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="51">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="41">
         <v>1</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="42" t="s">
         <v>113</v>
       </c>
-      <c r="C3" s="53">
+      <c r="C3" s="43">
         <v>84.35</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="51">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="41">
         <v>2</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="42" t="s">
         <v>114</v>
       </c>
-      <c r="C4" s="53">
+      <c r="C4" s="43">
         <v>84.11</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="51">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="41">
         <v>3</v>
       </c>
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="C5" s="53">
+      <c r="C5" s="43">
         <v>82.61</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="51">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="41">
         <v>4</v>
       </c>
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="42" t="s">
         <v>115</v>
       </c>
-      <c r="C6" s="53">
+      <c r="C6" s="43">
         <v>82.46</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="51">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="41">
         <v>5</v>
       </c>
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="42" t="s">
         <v>116</v>
       </c>
-      <c r="C7" s="53">
+      <c r="C7" s="43">
         <v>82.06</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="51">
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="41">
         <v>6</v>
       </c>
-      <c r="B8" s="52" t="s">
+      <c r="B8" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="C8" s="53">
+      <c r="C8" s="43">
         <v>80.84</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="51">
+    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="41">
         <v>7</v>
       </c>
-      <c r="B9" s="52" t="s">
+      <c r="B9" s="42" t="s">
         <v>106</v>
       </c>
-      <c r="C9" s="53">
+      <c r="C9" s="43">
         <v>79.48</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="51">
+    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="41">
         <v>8</v>
       </c>
-      <c r="B10" s="52" t="s">
+      <c r="B10" s="42" t="s">
         <v>107</v>
       </c>
-      <c r="C10" s="53">
+      <c r="C10" s="43">
         <v>78.069999999999993</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="51">
+    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="41">
         <v>9</v>
       </c>
-      <c r="B11" s="52" t="s">
+      <c r="B11" s="42" t="s">
         <v>99</v>
       </c>
-      <c r="C11" s="53">
+      <c r="C11" s="43">
         <v>77.25</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="51">
+    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="41">
         <v>10</v>
       </c>
-      <c r="B12" s="52" t="s">
+      <c r="B12" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="C12" s="53">
+      <c r="C12" s="43">
         <v>75.94</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="51">
+    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="41">
         <v>11</v>
       </c>
-      <c r="B13" s="52" t="s">
+      <c r="B13" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="C13" s="53">
+      <c r="C13" s="43">
         <v>75.2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="51">
+    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="41">
         <v>12</v>
       </c>
-      <c r="B14" s="52" t="s">
+      <c r="B14" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="C14" s="53">
+      <c r="C14" s="43">
         <v>73.37</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="51">
+    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="41">
         <v>13</v>
       </c>
-      <c r="B15" s="52" t="s">
+      <c r="B15" s="42" t="s">
         <v>118</v>
       </c>
-      <c r="C15" s="53">
+      <c r="C15" s="43">
         <v>69.510000000000005</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="51">
+    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="41">
         <v>14</v>
       </c>
-      <c r="B16" s="52" t="s">
+      <c r="B16" s="42" t="s">
         <v>100</v>
       </c>
-      <c r="C16" s="53">
+      <c r="C16" s="43">
         <v>67.08</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="51">
+    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="41">
         <v>15</v>
       </c>
-      <c r="B17" s="52" t="s">
+      <c r="B17" s="42" t="s">
         <v>98</v>
       </c>
-      <c r="C17" s="53">
+      <c r="C17" s="43">
         <v>66.989999999999995</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="58" t="s">
+    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="41" t="s">
         <v>103</v>
       </c>
-      <c r="C18" s="55">
+      <c r="C18" s="45">
         <v>78.22</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="28.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="61" t="s">
+    <row r="19" spans="1:3" ht="28.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="61"/>
-      <c r="C19" s="61"/>
-    </row>
-    <row r="20" spans="1:3" ht="28.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="50"/>
+    </row>
+    <row r="20" spans="1:3" ht="28.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A19:C19"/>
@@ -5542,22 +5531,22 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" customWidth="1"/>
-    <col min="2" max="2" width="29.453125" customWidth="1"/>
-    <col min="3" max="3" width="22.54296875" customWidth="1"/>
-    <col min="5" max="5" width="31.26953125" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" customWidth="1"/>
+    <col min="2" max="2" width="29.5" customWidth="1"/>
+    <col min="3" max="3" width="22.5" customWidth="1"/>
+    <col min="5" max="5" width="31.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13" x14ac:dyDescent="0.3">
-      <c r="A1" s="59" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-    </row>
-    <row r="2" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+    </row>
+    <row r="2" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -5566,8 +5555,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="13" x14ac:dyDescent="0.3">
-      <c r="A3" s="41">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="36">
         <v>1</v>
       </c>
       <c r="B3" t="s">
@@ -5578,8 +5567,8 @@
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="13" x14ac:dyDescent="0.3">
-      <c r="A4" s="41">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="36">
         <v>2</v>
       </c>
       <c r="B4" t="s">
@@ -5590,11 +5579,11 @@
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" ht="13" x14ac:dyDescent="0.3">
-      <c r="A5" s="41">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="36">
         <v>3</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="31" t="s">
         <v>49</v>
       </c>
       <c r="C5" s="1">
@@ -5602,11 +5591,11 @@
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" ht="13" x14ac:dyDescent="0.3">
-      <c r="A6" s="41">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="36">
         <v>4</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="31" t="s">
         <v>43</v>
       </c>
       <c r="C6" s="1">
@@ -5614,11 +5603,11 @@
       </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" ht="13" x14ac:dyDescent="0.3">
-      <c r="A7" s="41">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="36">
         <v>5</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="31" t="s">
         <v>42</v>
       </c>
       <c r="C7" s="1">
@@ -5626,8 +5615,8 @@
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" ht="13" x14ac:dyDescent="0.3">
-      <c r="A8" s="41">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="36">
         <v>6</v>
       </c>
       <c r="B8" t="s">
@@ -5638,11 +5627,11 @@
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" ht="13" x14ac:dyDescent="0.3">
-      <c r="A9" s="41">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="36">
         <v>7</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="31" t="s">
         <v>46</v>
       </c>
       <c r="C9" s="1">
@@ -5650,11 +5639,11 @@
       </c>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" ht="13" x14ac:dyDescent="0.3">
-      <c r="A10" s="41">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" s="36">
         <v>8</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="31" t="s">
         <v>45</v>
       </c>
       <c r="C10" s="1">
@@ -5662,8 +5651,8 @@
       </c>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" ht="13" x14ac:dyDescent="0.3">
-      <c r="A11" s="41">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" s="36">
         <v>9</v>
       </c>
       <c r="B11" t="s">
@@ -5674,8 +5663,8 @@
       </c>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" ht="13" x14ac:dyDescent="0.3">
-      <c r="A12" s="41">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" s="36">
         <v>10</v>
       </c>
       <c r="B12" t="s">
@@ -5686,8 +5675,8 @@
       </c>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" ht="13" x14ac:dyDescent="0.3">
-      <c r="A13" s="41">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" s="36">
         <v>11</v>
       </c>
       <c r="B13" t="s">
@@ -5698,8 +5687,8 @@
       </c>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" ht="13" x14ac:dyDescent="0.3">
-      <c r="A14" s="41">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14" s="36">
         <v>12</v>
       </c>
       <c r="B14" t="s">
@@ -5710,8 +5699,8 @@
       </c>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" ht="13" x14ac:dyDescent="0.3">
-      <c r="A15" s="41">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" s="36">
         <v>13</v>
       </c>
       <c r="B15" t="s">
@@ -5722,8 +5711,8 @@
       </c>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" ht="13" x14ac:dyDescent="0.3">
-      <c r="A16" s="41">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16" s="36">
         <v>14</v>
       </c>
       <c r="B16" t="s">
@@ -5734,8 +5723,8 @@
       </c>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" ht="13" x14ac:dyDescent="0.3">
-      <c r="A17" s="41">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17" s="36">
         <v>15</v>
       </c>
       <c r="B17" t="s">
@@ -5746,8 +5735,8 @@
       </c>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" ht="13" x14ac:dyDescent="0.3">
-      <c r="A18" s="41">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A18" s="36">
         <v>16</v>
       </c>
       <c r="B18" t="s">
@@ -5758,8 +5747,8 @@
       </c>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6" ht="13" x14ac:dyDescent="0.3">
-      <c r="A19" s="41">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A19" s="36">
         <v>17</v>
       </c>
       <c r="B19" t="s">
@@ -5770,11 +5759,11 @@
       </c>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6" ht="13" x14ac:dyDescent="0.3">
-      <c r="A20" s="41">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A20" s="36">
         <v>18</v>
       </c>
-      <c r="B20" s="34" t="s">
+      <c r="B20" s="31" t="s">
         <v>44</v>
       </c>
       <c r="C20" s="1">
@@ -5782,8 +5771,8 @@
       </c>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6" ht="13" x14ac:dyDescent="0.3">
-      <c r="A21" s="41">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A21" s="36">
         <v>19</v>
       </c>
       <c r="B21" t="s">
@@ -5794,8 +5783,8 @@
       </c>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6" ht="13" x14ac:dyDescent="0.3">
-      <c r="A22" s="41">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A22" s="36">
         <v>20</v>
       </c>
       <c r="B22" t="s">
@@ -5806,27 +5795,27 @@
       </c>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:6" ht="13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="5"/>
       <c r="B23" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="35">
+      <c r="C23" s="32">
         <v>77.400000000000006</v>
       </c>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="61" t="s">
+    <row r="24" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="B24" s="61"/>
-      <c r="C24" s="61"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="60"/>
-      <c r="B25" s="60"/>
-      <c r="C25" s="60"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="50"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A25" s="49"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="49"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:C23">
@@ -5848,24 +5837,24 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" customWidth="1"/>
-    <col min="2" max="2" width="29.453125" customWidth="1"/>
-    <col min="3" max="3" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" customWidth="1"/>
+    <col min="2" max="2" width="29.5" customWidth="1"/>
+    <col min="3" max="3" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="A1" s="59" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-    </row>
-    <row r="2" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+    </row>
+    <row r="2" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -5874,8 +5863,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="A3" s="41">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="36">
         <v>1</v>
       </c>
       <c r="B3" t="s">
@@ -5885,30 +5874,30 @@
         <v>93.75</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="A4" s="41">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="36">
         <v>2</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="31" t="s">
         <v>47</v>
       </c>
       <c r="C4" s="1">
         <v>89.97</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="A5" s="41">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="36">
         <v>3</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="31" t="s">
         <v>37</v>
       </c>
       <c r="C5" s="1">
         <v>80.72</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="A6" s="41">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="36">
         <v>4</v>
       </c>
       <c r="B6" t="s">
@@ -5918,8 +5907,8 @@
         <v>80.23</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="A7" s="41">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="36">
         <v>5</v>
       </c>
       <c r="B7" t="s">
@@ -5929,8 +5918,8 @@
         <v>76.849999999999994</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="A8" s="41">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="36">
         <v>6</v>
       </c>
       <c r="B8" t="s">
@@ -5940,8 +5929,8 @@
         <v>76.78</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="A9" s="41">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" s="36">
         <v>7</v>
       </c>
       <c r="B9" t="s">
@@ -5951,8 +5940,8 @@
         <v>76.3</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="A10" s="41">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" s="36">
         <v>8</v>
       </c>
       <c r="B10" t="s">
@@ -5962,8 +5951,8 @@
         <v>75.819999999999993</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="A11" s="41">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" s="36">
         <v>9</v>
       </c>
       <c r="B11" t="s">
@@ -5973,19 +5962,19 @@
         <v>75.55</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="A12" s="41">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" s="36">
         <v>10</v>
       </c>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="31" t="s">
         <v>44</v>
       </c>
       <c r="C12" s="1">
         <v>74.62</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="A13" s="41">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" s="36">
         <v>11</v>
       </c>
       <c r="B13" t="s">
@@ -5995,19 +5984,19 @@
         <v>73.86</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="A14" s="41">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" s="36">
         <v>12</v>
       </c>
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="31" t="s">
         <v>46</v>
       </c>
       <c r="C14" s="1">
         <v>73.77</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="A15" s="41">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" s="36">
         <v>13</v>
       </c>
       <c r="B15" t="s">
@@ -6017,8 +6006,8 @@
         <v>73.42</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="A16" s="41">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" s="36">
         <v>14</v>
       </c>
       <c r="B16" t="s">
@@ -6028,8 +6017,8 @@
         <v>73.33</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="A17" s="41">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" s="36">
         <v>15</v>
       </c>
       <c r="B17" t="s">
@@ -6039,8 +6028,8 @@
         <v>73.28</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="A18" s="41">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" s="36">
         <v>16</v>
       </c>
       <c r="B18" t="s">
@@ -6050,19 +6039,19 @@
         <v>73.28</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="A19" s="41">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" s="36">
         <v>17</v>
       </c>
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="31" t="s">
         <v>48</v>
       </c>
       <c r="C19" s="1">
         <v>72.900000000000006</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="A20" s="41">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" s="36">
         <v>18</v>
       </c>
       <c r="B20" t="s">
@@ -6072,19 +6061,19 @@
         <v>71.48</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="A21" s="41">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21" s="36">
         <v>19</v>
       </c>
-      <c r="B21" s="34" t="s">
+      <c r="B21" s="31" t="s">
         <v>43</v>
       </c>
       <c r="C21" s="1">
         <v>69.44</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="A22" s="41">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22" s="36">
         <v>20</v>
       </c>
       <c r="B22" t="s">
@@ -6094,26 +6083,26 @@
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" s="5"/>
       <c r="B23" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="35">
+      <c r="C23" s="32">
         <v>75.45</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="61" t="s">
+    <row r="24" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="B24" s="61"/>
-      <c r="C24" s="61"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="60"/>
-      <c r="B25" s="60"/>
-      <c r="C25" s="60"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="50"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A25" s="49"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="49"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:C23">
@@ -6138,21 +6127,21 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" customWidth="1"/>
-    <col min="2" max="2" width="29.453125" customWidth="1"/>
-    <col min="3" max="3" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" customWidth="1"/>
+    <col min="2" max="2" width="29.5" customWidth="1"/>
+    <col min="3" max="3" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="A1" s="59" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-    </row>
-    <row r="2" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+    </row>
+    <row r="2" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -6161,8 +6150,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="A3" s="41">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="36">
         <v>1</v>
       </c>
       <c r="B3" t="s">
@@ -6172,19 +6161,19 @@
         <v>93.29</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="A4" s="41">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="36">
         <v>2</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="31" t="s">
         <v>47</v>
       </c>
       <c r="C4" s="1">
         <v>92.25</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="A5" s="41">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="36">
         <v>3</v>
       </c>
       <c r="B5" t="s">
@@ -6194,8 +6183,8 @@
         <v>80.12</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="A6" s="41">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="36">
         <v>4</v>
       </c>
       <c r="B6" t="s">
@@ -6205,8 +6194,8 @@
         <v>77.61</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="A7" s="41">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="36">
         <v>5</v>
       </c>
       <c r="B7" t="s">
@@ -6216,8 +6205,8 @@
         <v>76.89</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="A8" s="41">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="36">
         <v>6</v>
       </c>
       <c r="B8" t="s">
@@ -6227,8 +6216,8 @@
         <v>76.81</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="A9" s="41">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" s="36">
         <v>7</v>
       </c>
       <c r="B9" t="s">
@@ -6238,8 +6227,8 @@
         <v>76.3</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="A10" s="41">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" s="36">
         <v>8</v>
       </c>
       <c r="B10" t="s">
@@ -6249,8 +6238,8 @@
         <v>75.680000000000007</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="A11" s="41">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" s="36">
         <v>9</v>
       </c>
       <c r="B11" t="s">
@@ -6260,8 +6249,8 @@
         <v>74.34</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="A12" s="41">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" s="36">
         <v>10</v>
       </c>
       <c r="B12" t="s">
@@ -6271,8 +6260,8 @@
         <v>73.77</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="A13" s="41">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" s="36">
         <v>11</v>
       </c>
       <c r="B13" t="s">
@@ -6282,8 +6271,8 @@
         <v>73.099999999999994</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="A14" s="41">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" s="36">
         <v>12</v>
       </c>
       <c r="B14" t="s">
@@ -6293,8 +6282,8 @@
         <v>72.38</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="A15" s="41">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" s="36">
         <v>13</v>
       </c>
       <c r="B15" t="s">
@@ -6304,8 +6293,8 @@
         <v>70.33</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="A16" s="41">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" s="36">
         <v>14</v>
       </c>
       <c r="B16" t="s">
@@ -6315,8 +6304,8 @@
         <v>70.099999999999994</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="A17" s="41">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" s="36">
         <v>15</v>
       </c>
       <c r="B17" t="s">
@@ -6326,8 +6315,8 @@
         <v>69.62</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="A18" s="41">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" s="36">
         <v>16</v>
       </c>
       <c r="B18" t="s">
@@ -6337,8 +6326,8 @@
         <v>69.13</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="A19" s="41">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" s="36">
         <v>17</v>
       </c>
       <c r="B19" t="s">
@@ -6348,8 +6337,8 @@
         <v>68.739999999999995</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="A20" s="41">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" s="36">
         <v>18</v>
       </c>
       <c r="B20" t="s">
@@ -6359,8 +6348,8 @@
         <v>68.709999999999994</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="A21" s="41">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21" s="36">
         <v>19</v>
       </c>
       <c r="B21" t="s">
@@ -6370,37 +6359,37 @@
         <v>67.86</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="A22" s="45">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22" s="36">
         <v>20</v>
       </c>
-      <c r="B22" s="38" t="s">
+      <c r="B22" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="39">
+      <c r="C22" s="1">
         <v>64.73</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" s="5"/>
       <c r="B23" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="35">
+      <c r="C23" s="32">
         <v>73.42</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="61" t="s">
+    <row r="24" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="B24" s="61"/>
-      <c r="C24" s="61"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="60"/>
-      <c r="B25" s="60"/>
-      <c r="C25" s="60"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="50"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A25" s="49"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="49"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:C23">
@@ -6422,24 +6411,24 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="A25" sqref="A25:C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" customWidth="1"/>
-    <col min="2" max="2" width="29.453125" customWidth="1"/>
-    <col min="3" max="3" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" customWidth="1"/>
+    <col min="2" max="2" width="29.5" customWidth="1"/>
+    <col min="3" max="3" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="A1" s="59" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" s="48" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-    </row>
-    <row r="2" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+    </row>
+    <row r="2" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -6448,8 +6437,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="A3" s="41">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="36">
         <v>1</v>
       </c>
       <c r="B3" t="s">
@@ -6459,8 +6448,8 @@
         <v>89.97</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="A4" s="41">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="36">
         <v>2</v>
       </c>
       <c r="B4" t="s">
@@ -6470,8 +6459,8 @@
         <v>80.48</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="A5" s="41">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="36">
         <v>3</v>
       </c>
       <c r="B5" t="s">
@@ -6481,8 +6470,8 @@
         <v>80.06</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="A6" s="41">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="36">
         <v>4</v>
       </c>
       <c r="B6" t="s">
@@ -6492,8 +6481,8 @@
         <v>79.55</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="A7" s="41">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="36">
         <v>5</v>
       </c>
       <c r="B7" t="s">
@@ -6503,8 +6492,8 @@
         <v>78.98</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="A8" s="41">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="36">
         <v>6</v>
       </c>
       <c r="B8" t="s">
@@ -6514,8 +6503,8 @@
         <v>78.97</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="A9" s="41">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" s="36">
         <v>7</v>
       </c>
       <c r="B9" t="s">
@@ -6525,8 +6514,8 @@
         <v>78.290000000000006</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="A10" s="41">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" s="36">
         <v>8</v>
       </c>
       <c r="B10" t="s">
@@ -6536,8 +6525,8 @@
         <v>76.77</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="A11" s="41">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" s="36">
         <v>9</v>
       </c>
       <c r="B11" t="s">
@@ -6547,8 +6536,8 @@
         <v>76.73</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="13" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="41">
+    <row r="12" spans="1:3" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="36">
         <v>10</v>
       </c>
       <c r="B12" t="s">
@@ -6558,8 +6547,8 @@
         <v>76.36</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="A13" s="41">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" s="36">
         <v>11</v>
       </c>
       <c r="B13" t="s">
@@ -6569,8 +6558,8 @@
         <v>74.239999999999995</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="A14" s="41">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" s="36">
         <v>12</v>
       </c>
       <c r="B14" t="s">
@@ -6580,8 +6569,8 @@
         <v>73.98</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="A15" s="41">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" s="36">
         <v>13</v>
       </c>
       <c r="B15" t="s">
@@ -6591,8 +6580,8 @@
         <v>73.569999999999993</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="A16" s="41">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" s="36">
         <v>14</v>
       </c>
       <c r="B16" t="s">
@@ -6602,8 +6591,8 @@
         <v>72.95</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="A17" s="41">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" s="36">
         <v>15</v>
       </c>
       <c r="B17" t="s">
@@ -6613,8 +6602,8 @@
         <v>72.87</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="A18" s="41">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" s="36">
         <v>16</v>
       </c>
       <c r="B18" t="s">
@@ -6624,8 +6613,8 @@
         <v>72.849999999999994</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="A19" s="41">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" s="36">
         <v>17</v>
       </c>
       <c r="B19" t="s">
@@ -6635,8 +6624,8 @@
         <v>71.61</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="A20" s="41">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" s="36">
         <v>18</v>
       </c>
       <c r="B20" t="s">
@@ -6646,8 +6635,8 @@
         <v>69.92</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="A21" s="41">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21" s="36">
         <v>19</v>
       </c>
       <c r="B21" t="s">
@@ -6657,8 +6646,8 @@
         <v>69.84</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="A22" s="41">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22" s="36">
         <v>20</v>
       </c>
       <c r="B22" t="s">
@@ -6668,7 +6657,7 @@
         <v>94.33</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" s="5"/>
       <c r="B23" s="7" t="s">
         <v>4</v>
@@ -6677,19 +6666,19 @@
         <v>76.040000000000006</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="61" t="s">
+    <row r="24" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="B24" s="61"/>
-      <c r="C24" s="61"/>
-    </row>
-    <row r="25" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="50"/>
+      <c r="C24" s="50"/>
+    </row>
+    <row r="25" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="60"/>
-      <c r="C25" s="60"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -6712,22 +6701,22 @@
       <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" customWidth="1"/>
-    <col min="2" max="2" width="29.453125" customWidth="1"/>
-    <col min="3" max="3" width="22.54296875" customWidth="1"/>
-    <col min="10" max="10" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" customWidth="1"/>
+    <col min="2" max="2" width="29.5" customWidth="1"/>
+    <col min="3" max="3" width="22.5" customWidth="1"/>
+    <col min="10" max="10" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="13" x14ac:dyDescent="0.3">
-      <c r="A1" s="59" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A1" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-    </row>
-    <row r="2" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+    </row>
+    <row r="2" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -6736,8 +6725,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="13" x14ac:dyDescent="0.3">
-      <c r="A3" s="41">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A3" s="36">
         <v>1</v>
       </c>
       <c r="B3" t="s">
@@ -6751,8 +6740,8 @@
       <c r="I3" s="3"/>
       <c r="J3" s="4"/>
     </row>
-    <row r="4" spans="1:10" ht="13" x14ac:dyDescent="0.3">
-      <c r="A4" s="41">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A4" s="36">
         <v>2</v>
       </c>
       <c r="B4" t="s">
@@ -6765,8 +6754,8 @@
       <c r="I4" s="3"/>
       <c r="J4" s="4"/>
     </row>
-    <row r="5" spans="1:10" ht="13" x14ac:dyDescent="0.3">
-      <c r="A5" s="41">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A5" s="36">
         <v>3</v>
       </c>
       <c r="B5" t="s">
@@ -6776,8 +6765,8 @@
         <v>82.91</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="13" x14ac:dyDescent="0.3">
-      <c r="A6" s="41">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A6" s="36">
         <v>4</v>
       </c>
       <c r="B6" t="s">
@@ -6787,8 +6776,8 @@
         <v>82.54</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="13" x14ac:dyDescent="0.3">
-      <c r="A7" s="41">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A7" s="36">
         <v>5</v>
       </c>
       <c r="B7" t="s">
@@ -6798,8 +6787,8 @@
         <v>82.11</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="13" x14ac:dyDescent="0.3">
-      <c r="A8" s="41">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A8" s="36">
         <v>6</v>
       </c>
       <c r="B8" t="s">
@@ -6809,8 +6798,8 @@
         <v>80.98</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="13" x14ac:dyDescent="0.3">
-      <c r="A9" s="41">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A9" s="36">
         <v>7</v>
       </c>
       <c r="B9" t="s">
@@ -6820,8 +6809,8 @@
         <v>80.87</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="13" x14ac:dyDescent="0.3">
-      <c r="A10" s="41">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A10" s="36">
         <v>8</v>
       </c>
       <c r="B10" t="s">
@@ -6831,8 +6820,8 @@
         <v>79.150000000000006</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="13" x14ac:dyDescent="0.3">
-      <c r="A11" s="41">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A11" s="36">
         <v>9</v>
       </c>
       <c r="B11" t="s">
@@ -6842,8 +6831,8 @@
         <v>79.13</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="13" x14ac:dyDescent="0.3">
-      <c r="A12" s="41">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A12" s="36">
         <v>10</v>
       </c>
       <c r="B12" t="s">
@@ -6853,8 +6842,8 @@
         <v>78.77</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="13" x14ac:dyDescent="0.3">
-      <c r="A13" s="41">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A13" s="36">
         <v>11</v>
       </c>
       <c r="B13" t="s">
@@ -6864,8 +6853,8 @@
         <v>78.72</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="13" x14ac:dyDescent="0.3">
-      <c r="A14" s="41">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A14" s="36">
         <v>12</v>
       </c>
       <c r="B14" t="s">
@@ -6875,8 +6864,8 @@
         <v>78.56</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="13" x14ac:dyDescent="0.3">
-      <c r="A15" s="41">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A15" s="36">
         <v>13</v>
       </c>
       <c r="B15" t="s">
@@ -6886,8 +6875,8 @@
         <v>78.3</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="13" x14ac:dyDescent="0.3">
-      <c r="A16" s="41">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A16" s="36">
         <v>14</v>
       </c>
       <c r="B16" t="s">
@@ -6897,8 +6886,8 @@
         <v>77.45</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="A17" s="41">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" s="36">
         <v>15</v>
       </c>
       <c r="B17" t="s">
@@ -6908,8 +6897,8 @@
         <v>77.22</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="A18" s="41">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" s="36">
         <v>16</v>
       </c>
       <c r="B18" t="s">
@@ -6919,8 +6908,8 @@
         <v>77.209999999999994</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="A19" s="41">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" s="36">
         <v>17</v>
       </c>
       <c r="B19" t="s">
@@ -6930,8 +6919,8 @@
         <v>75.790000000000006</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="A20" s="41">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" s="36">
         <v>18</v>
       </c>
       <c r="B20" t="s">
@@ -6941,8 +6930,8 @@
         <v>71.239999999999995</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="A21" s="41">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21" s="36">
         <v>19</v>
       </c>
       <c r="B21" t="s">
@@ -6952,21 +6941,21 @@
         <v>69.02</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" s="5"/>
       <c r="B22" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="35">
+      <c r="C22" s="32">
         <v>79.489999999999995</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="61" t="s">
+    <row r="23" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="61"/>
-      <c r="C23" s="61"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6987,22 +6976,22 @@
       <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" customWidth="1"/>
-    <col min="2" max="2" width="29.453125" customWidth="1"/>
-    <col min="3" max="3" width="22.54296875" customWidth="1"/>
-    <col min="10" max="10" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" customWidth="1"/>
+    <col min="2" max="2" width="29.5" customWidth="1"/>
+    <col min="3" max="3" width="22.5" customWidth="1"/>
+    <col min="10" max="10" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="59" t="s">
+    <row r="1" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-    </row>
-    <row r="2" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+    </row>
+    <row r="2" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -7011,8 +7000,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="13" x14ac:dyDescent="0.3">
-      <c r="A3" s="41">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A3" s="36">
         <v>1</v>
       </c>
       <c r="B3" t="s">
@@ -7026,8 +7015,8 @@
       <c r="I3" s="3"/>
       <c r="J3" s="4"/>
     </row>
-    <row r="4" spans="1:10" ht="13" x14ac:dyDescent="0.3">
-      <c r="A4" s="41">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A4" s="36">
         <v>2</v>
       </c>
       <c r="B4" t="s">
@@ -7040,8 +7029,8 @@
       <c r="I4" s="3"/>
       <c r="J4" s="4"/>
     </row>
-    <row r="5" spans="1:10" ht="13" x14ac:dyDescent="0.3">
-      <c r="A5" s="41">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A5" s="36">
         <v>3</v>
       </c>
       <c r="B5" t="s">
@@ -7051,8 +7040,8 @@
         <v>85.16</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="13" x14ac:dyDescent="0.3">
-      <c r="A6" s="41">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A6" s="36">
         <v>4</v>
       </c>
       <c r="B6" t="s">
@@ -7062,8 +7051,8 @@
         <v>83.32</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="13" x14ac:dyDescent="0.3">
-      <c r="A7" s="41">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A7" s="36">
         <v>5</v>
       </c>
       <c r="B7" t="s">
@@ -7073,8 +7062,8 @@
         <v>83.03</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="13" x14ac:dyDescent="0.3">
-      <c r="A8" s="41">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A8" s="36">
         <v>6</v>
       </c>
       <c r="B8" t="s">
@@ -7084,8 +7073,8 @@
         <v>82.84</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="13" x14ac:dyDescent="0.3">
-      <c r="A9" s="41">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A9" s="36">
         <v>7</v>
       </c>
       <c r="B9" t="s">
@@ -7095,8 +7084,8 @@
         <v>81.42</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="13" x14ac:dyDescent="0.3">
-      <c r="A10" s="41">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A10" s="36">
         <v>8</v>
       </c>
       <c r="B10" t="s">
@@ -7106,8 +7095,8 @@
         <v>81.41</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="13" x14ac:dyDescent="0.3">
-      <c r="A11" s="41">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A11" s="36">
         <v>9</v>
       </c>
       <c r="B11" t="s">
@@ -7117,8 +7106,8 @@
         <v>79.63</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="13" x14ac:dyDescent="0.3">
-      <c r="A12" s="41">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A12" s="36">
         <v>10</v>
       </c>
       <c r="B12" t="s">
@@ -7128,8 +7117,8 @@
         <v>79.459999999999994</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="13" x14ac:dyDescent="0.3">
-      <c r="A13" s="41">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A13" s="36">
         <v>11</v>
       </c>
       <c r="B13" t="s">
@@ -7139,8 +7128,8 @@
         <v>79.239999999999995</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="13" x14ac:dyDescent="0.3">
-      <c r="A14" s="41">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A14" s="36">
         <v>12</v>
       </c>
       <c r="B14" t="s">
@@ -7150,8 +7139,8 @@
         <v>79.05</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="13" x14ac:dyDescent="0.3">
-      <c r="A15" s="41">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A15" s="36">
         <v>13</v>
       </c>
       <c r="B15" t="s">
@@ -7161,8 +7150,8 @@
         <v>78.489999999999995</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="13" x14ac:dyDescent="0.3">
-      <c r="A16" s="41">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A16" s="36">
         <v>14</v>
       </c>
       <c r="B16" t="s">
@@ -7172,8 +7161,8 @@
         <v>77.77</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="A17" s="41">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" s="36">
         <v>15</v>
       </c>
       <c r="B17" t="s">
@@ -7183,8 +7172,8 @@
         <v>77.37</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="A18" s="41">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" s="36">
         <v>16</v>
       </c>
       <c r="B18" t="s">
@@ -7194,8 +7183,8 @@
         <v>77.05</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="A19" s="41">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" s="36">
         <v>17</v>
       </c>
       <c r="B19" t="s">
@@ -7205,8 +7194,8 @@
         <v>75.680000000000007</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="A20" s="41">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" s="36">
         <v>18</v>
       </c>
       <c r="B20" t="s">
@@ -7216,7 +7205,7 @@
         <v>73.12</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" s="5"/>
       <c r="B21" s="7" t="s">
         <v>4</v>
@@ -7225,12 +7214,12 @@
         <v>79.790000000000006</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="61" t="s">
+    <row r="22" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="B22" s="61"/>
-      <c r="C22" s="61"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -7251,24 +7240,24 @@
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="29.453125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="22.54296875" style="8" customWidth="1"/>
-    <col min="4" max="9" width="9.1796875" style="8"/>
-    <col min="10" max="10" width="9.26953125" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.1796875" style="8"/>
+    <col min="1" max="1" width="8.6640625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="29.5" style="8" customWidth="1"/>
+    <col min="3" max="3" width="22.5" style="8" customWidth="1"/>
+    <col min="4" max="9" width="9.1640625" style="8"/>
+    <col min="10" max="10" width="9.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.1640625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="13" x14ac:dyDescent="0.3">
-      <c r="A1" s="62" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A1" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-    </row>
-    <row r="2" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+    </row>
+    <row r="2" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="14"/>
       <c r="B2" s="15" t="s">
         <v>0</v>
@@ -7277,8 +7266,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="13" x14ac:dyDescent="0.3">
-      <c r="A3" s="46">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A3" s="38">
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -7292,8 +7281,8 @@
       <c r="I3" s="12"/>
       <c r="J3" s="13"/>
     </row>
-    <row r="4" spans="1:10" ht="13" x14ac:dyDescent="0.3">
-      <c r="A4" s="46">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A4" s="38">
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
@@ -7306,8 +7295,8 @@
       <c r="I4" s="12"/>
       <c r="J4" s="13"/>
     </row>
-    <row r="5" spans="1:10" ht="13" x14ac:dyDescent="0.3">
-      <c r="A5" s="46">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A5" s="38">
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
@@ -7317,8 +7306,8 @@
         <v>84.43</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="13" x14ac:dyDescent="0.3">
-      <c r="A6" s="46">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A6" s="38">
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -7328,8 +7317,8 @@
         <v>83.73</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="13" x14ac:dyDescent="0.3">
-      <c r="A7" s="46">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A7" s="38">
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
@@ -7339,8 +7328,8 @@
         <v>82.29</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="13" x14ac:dyDescent="0.3">
-      <c r="A8" s="46">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A8" s="38">
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -7350,8 +7339,8 @@
         <v>81.33</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="13" x14ac:dyDescent="0.3">
-      <c r="A9" s="46">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A9" s="38">
         <v>7</v>
       </c>
       <c r="B9" s="8" t="s">
@@ -7361,8 +7350,8 @@
         <v>80.16</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="13" x14ac:dyDescent="0.3">
-      <c r="A10" s="46">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A10" s="38">
         <v>8</v>
       </c>
       <c r="B10" s="8" t="s">
@@ -7372,8 +7361,8 @@
         <v>79.790000000000006</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="13" x14ac:dyDescent="0.3">
-      <c r="A11" s="46">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A11" s="38">
         <v>9</v>
       </c>
       <c r="B11" s="8" t="s">
@@ -7383,8 +7372,8 @@
         <v>79.34</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="13" x14ac:dyDescent="0.3">
-      <c r="A12" s="46">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A12" s="38">
         <v>10</v>
       </c>
       <c r="B12" s="8" t="s">
@@ -7394,8 +7383,8 @@
         <v>79.16</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="13" x14ac:dyDescent="0.3">
-      <c r="A13" s="46">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A13" s="38">
         <v>11</v>
       </c>
       <c r="B13" s="8" t="s">
@@ -7405,8 +7394,8 @@
         <v>77.790000000000006</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="13" x14ac:dyDescent="0.3">
-      <c r="A14" s="46">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A14" s="38">
         <v>12</v>
       </c>
       <c r="B14" s="8" t="s">
@@ -7416,8 +7405,8 @@
         <v>77.13</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="13" x14ac:dyDescent="0.3">
-      <c r="A15" s="46">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A15" s="38">
         <v>13</v>
       </c>
       <c r="B15" s="8" t="s">
@@ -7427,8 +7416,8 @@
         <v>76.349999999999994</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="13" x14ac:dyDescent="0.3">
-      <c r="A16" s="46">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A16" s="38">
         <v>14</v>
       </c>
       <c r="B16" s="8" t="s">
@@ -7438,8 +7427,8 @@
         <v>75.150000000000006</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="A17" s="46">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" s="38">
         <v>15</v>
       </c>
       <c r="B17" s="8" t="s">
@@ -7449,8 +7438,8 @@
         <v>74.67</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="A18" s="46">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" s="38">
         <v>16</v>
       </c>
       <c r="B18" s="8" t="s">
@@ -7460,7 +7449,7 @@
         <v>73.34</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" s="14"/>
       <c r="B19" s="16" t="s">
         <v>4</v>
@@ -7469,12 +7458,12 @@
         <v>79.62</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="64" t="s">
+    <row r="20" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="64"/>
-      <c r="C20" s="64"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="2">
